--- a/Code/Results/Cases/Case_1_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_21/res_line/loading_percent.xlsx
@@ -418,16 +418,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.668846348598673</v>
+        <v>3.668846348598866</v>
       </c>
       <c r="E2">
-        <v>43.38754354107452</v>
+        <v>43.3875435410746</v>
       </c>
       <c r="F2">
-        <v>38.34137615417148</v>
+        <v>38.3413761541718</v>
       </c>
       <c r="G2">
-        <v>29.94268218282451</v>
+        <v>29.94268218282481</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>39.85085004558374</v>
+        <v>39.85085004558386</v>
       </c>
       <c r="L2">
-        <v>32.53669176787674</v>
+        <v>32.53669176787678</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.53861687778245</v>
+        <v>15.53861687778244</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.253622143164432</v>
+        <v>3.253622143164379</v>
       </c>
       <c r="E3">
-        <v>40.46071102669727</v>
+        <v>40.46071102669732</v>
       </c>
       <c r="F3">
-        <v>34.97589960453959</v>
+        <v>34.97589960453951</v>
       </c>
       <c r="G3">
-        <v>27.24058628058362</v>
+        <v>27.24058628058356</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>36.96245824320379</v>
+        <v>36.96245824320384</v>
       </c>
       <c r="L3">
-        <v>30.20565216746506</v>
+        <v>30.20565216746508</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.76212247071641</v>
+        <v>14.76212247071639</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.000820213656183</v>
+        <v>3.000820213656196</v>
       </c>
       <c r="E4">
-        <v>38.58800371799357</v>
+        <v>38.58800371799354</v>
       </c>
       <c r="F4">
-        <v>32.8973841957072</v>
+        <v>32.89738419570718</v>
       </c>
       <c r="G4">
-        <v>25.57086617006225</v>
+        <v>25.57086617006227</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>35.11503664022914</v>
+        <v>35.11503664022908</v>
       </c>
       <c r="L4">
-        <v>28.71409087264475</v>
+        <v>28.71409087264469</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.43683343462477</v>
+        <v>14.43683343462471</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.897982135270502</v>
+        <v>2.897982135270752</v>
       </c>
       <c r="E5">
-        <v>37.80523602462254</v>
+        <v>37.80523602462277</v>
       </c>
       <c r="F5">
-        <v>32.04580753763175</v>
+        <v>32.04580753763172</v>
       </c>
       <c r="G5">
-        <v>24.88642081804345</v>
+        <v>24.88642081804348</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>34.3426429431808</v>
+        <v>34.34264294318092</v>
       </c>
       <c r="L5">
-        <v>28.09039208785689</v>
+        <v>28.09039208785694</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -570,16 +570,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.880907501604699</v>
+        <v>2.880907501604759</v>
       </c>
       <c r="E6">
-        <v>37.67405815888753</v>
+        <v>37.67405815888733</v>
       </c>
       <c r="F6">
-        <v>31.90409287505915</v>
+        <v>31.90409287505896</v>
       </c>
       <c r="G6">
-        <v>24.77249406176687</v>
+        <v>24.77249406176675</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>34.2131809734086</v>
+        <v>34.21318097340848</v>
       </c>
       <c r="L6">
-        <v>27.98584969085753</v>
+        <v>27.98584969085746</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.75777175880651</v>
+        <v>14.75777175880643</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.999433002301213</v>
+        <v>2.999433002301254</v>
       </c>
       <c r="E7">
-        <v>38.57752718142905</v>
+        <v>38.57752718142896</v>
       </c>
       <c r="F7">
-        <v>32.88591967811097</v>
+        <v>32.88591967811077</v>
       </c>
       <c r="G7">
-        <v>25.5616532900902</v>
+        <v>25.56165329009002</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>35.10470021628719</v>
+        <v>35.10470021628714</v>
       </c>
       <c r="L7">
-        <v>28.70574459801111</v>
+        <v>28.70574459801102</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.33775599880758</v>
+        <v>16.33775599880762</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.524994411175335</v>
+        <v>3.524994411175274</v>
       </c>
       <c r="E8">
-        <v>42.3936456443084</v>
+        <v>42.39364564430846</v>
       </c>
       <c r="F8">
-        <v>37.18239568120506</v>
+        <v>37.1823956812049</v>
       </c>
       <c r="G8">
-        <v>29.01226683027525</v>
+        <v>29.01226683027512</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>38.86965210543998</v>
       </c>
       <c r="L8">
-        <v>31.74499684739135</v>
+        <v>31.74499684739136</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.1822904264751</v>
+        <v>19.18229042647512</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.593106491046914</v>
+        <v>4.593106491046983</v>
       </c>
       <c r="E9">
-        <v>49.31493337158015</v>
+        <v>49.31493337158028</v>
       </c>
       <c r="F9">
-        <v>45.61126579007018</v>
+        <v>45.61126579007069</v>
       </c>
       <c r="G9">
-        <v>35.77986833405333</v>
+        <v>35.77986833405379</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>45.71894610069555</v>
+        <v>45.71894610069565</v>
       </c>
       <c r="L9">
-        <v>37.26609570099757</v>
+        <v>37.26609570099765</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.1460503233323</v>
+        <v>21.14605032333224</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.438937317847627</v>
+        <v>5.438937317847822</v>
       </c>
       <c r="E10">
-        <v>54.1309911150762</v>
+        <v>54.13099111507596</v>
       </c>
       <c r="F10">
-        <v>52.00760591369092</v>
+        <v>52.0076059136911</v>
       </c>
       <c r="G10">
-        <v>40.92190481216353</v>
+        <v>40.9219048121637</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>50.52078573327983</v>
+        <v>50.52078573327967</v>
       </c>
       <c r="L10">
-        <v>41.12620034238915</v>
+        <v>41.12620034238905</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -760,16 +760,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.84990418664009</v>
+        <v>5.849904186640036</v>
       </c>
       <c r="E11">
-        <v>56.28860453313747</v>
+        <v>56.28860453313739</v>
       </c>
       <c r="F11">
-        <v>55.03315146196499</v>
+        <v>55.0331514619651</v>
       </c>
       <c r="G11">
-        <v>43.35733355274201</v>
+        <v>43.35733355274207</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>52.68588641796272</v>
+        <v>52.68588641796267</v>
       </c>
       <c r="L11">
-        <v>42.86264177777197</v>
+        <v>42.86264177777193</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.35073043209456</v>
+        <v>22.3507304320946</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.010914171465359</v>
+        <v>6.010914171465351</v>
       </c>
       <c r="E12">
-        <v>57.10396663105891</v>
+        <v>57.10396663105895</v>
       </c>
       <c r="F12">
-        <v>56.20460917247788</v>
+        <v>56.2046091724779</v>
       </c>
       <c r="G12">
         <v>44.30093662850705</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>53.50669358251478</v>
+        <v>53.50669358251482</v>
       </c>
       <c r="L12">
-        <v>43.52015972101938</v>
+        <v>43.52015972101943</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.27976521042439</v>
+        <v>22.27976521042434</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.975965337653715</v>
+        <v>5.975965337653526</v>
       </c>
       <c r="E13">
-        <v>56.9283760007885</v>
+        <v>56.92837600078848</v>
       </c>
       <c r="F13">
-        <v>55.95098403334669</v>
+        <v>55.95098403334661</v>
       </c>
       <c r="G13">
-        <v>44.09661179474897</v>
+        <v>44.09661179474889</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>53.32980266049883</v>
+        <v>53.32980266049876</v>
       </c>
       <c r="L13">
-        <v>43.37849758865951</v>
+        <v>43.37849758865944</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.86303103293806</v>
+        <v>5.863031032938057</v>
       </c>
       <c r="E14">
-        <v>56.35569647182598</v>
+        <v>56.35569647182614</v>
       </c>
       <c r="F14">
-        <v>55.12894654528518</v>
+        <v>55.12894654528515</v>
       </c>
       <c r="G14">
-        <v>43.43448232589699</v>
+        <v>43.43448232589696</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>52.75336993861222</v>
+        <v>52.75336993861234</v>
       </c>
       <c r="L14">
-        <v>42.91671730618278</v>
+        <v>42.91671730618287</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.9061028413812</v>
+        <v>21.90610284138119</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.794615865058002</v>
+        <v>5.79461586505787</v>
       </c>
       <c r="E15">
-        <v>56.00480716315579</v>
+        <v>56.00480716315575</v>
       </c>
       <c r="F15">
-        <v>54.62911044897209</v>
+        <v>54.62911044897216</v>
       </c>
       <c r="G15">
-        <v>43.03196465774502</v>
+        <v>43.03196465774504</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>52.40054240748299</v>
+        <v>52.40054240748295</v>
       </c>
       <c r="L15">
-        <v>42.63395859818895</v>
+        <v>42.63395859818893</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.08858349756306</v>
+        <v>21.08858349756303</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.412731530284558</v>
+        <v>5.412731530284446</v>
       </c>
       <c r="E16">
-        <v>53.98955702393401</v>
+        <v>53.98955702393354</v>
       </c>
       <c r="F16">
-        <v>51.81290943014483</v>
+        <v>51.81290943014476</v>
       </c>
       <c r="G16">
-        <v>40.76525962566869</v>
+        <v>40.76525962566861</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>50.37919102281445</v>
+        <v>50.37919102281415</v>
       </c>
       <c r="L16">
-        <v>41.01254230146593</v>
+        <v>41.01254230146569</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.5830038679786</v>
+        <v>20.58300386797858</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.186139759944161</v>
+        <v>5.186139759944148</v>
       </c>
       <c r="E17">
-        <v>52.74662805779381</v>
+        <v>52.74662805779383</v>
       </c>
       <c r="F17">
-        <v>50.12037080228104</v>
+        <v>50.12037080228108</v>
       </c>
       <c r="G17">
-        <v>39.40387566126826</v>
+        <v>39.40387566126829</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>49.13647429487666</v>
+        <v>49.13647429487663</v>
       </c>
       <c r="L17">
-        <v>40.01454239369586</v>
+        <v>40.01454239369585</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.29039846668532</v>
+        <v>20.29039846668539</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.058151541921103</v>
+        <v>5.058151541921088</v>
       </c>
       <c r="E18">
-        <v>52.02836334365674</v>
+        <v>52.02836334365697</v>
       </c>
       <c r="F18">
-        <v>49.15706720098029</v>
+        <v>49.15706720098031</v>
       </c>
       <c r="G18">
         <v>38.62932847765494</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>48.41960185538521</v>
+        <v>48.41960185538539</v>
       </c>
       <c r="L18">
-        <v>39.43847044967141</v>
+        <v>39.43847044967154</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1064,16 +1064,16 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.015179076391731</v>
+        <v>5.015179076391786</v>
       </c>
       <c r="E19">
-        <v>51.78451618069524</v>
+        <v>51.78451618069537</v>
       </c>
       <c r="F19">
-        <v>48.83243737609249</v>
+        <v>48.83243737609275</v>
       </c>
       <c r="G19">
-        <v>38.36835239563137</v>
+        <v>38.36835239563158</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>48.17642839607265</v>
+        <v>48.1764283960727</v>
       </c>
       <c r="L19">
-        <v>39.24300074411446</v>
+        <v>39.2430007441145</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.63700437274827</v>
+        <v>20.6370043727483</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.210008691512591</v>
+        <v>5.210008691512654</v>
       </c>
       <c r="E20">
-        <v>52.87926927660163</v>
+        <v>52.87926927660139</v>
       </c>
       <c r="F20">
-        <v>50.29943378198076</v>
+        <v>50.29943378198061</v>
       </c>
       <c r="G20">
-        <v>39.54787366786755</v>
+        <v>39.54787366786744</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>49.26895760523582</v>
+        <v>49.26895760523568</v>
       </c>
       <c r="L20">
-        <v>40.12097613500183</v>
+        <v>40.12097613500175</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.1162104717711</v>
+        <v>22.11621047177114</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.896040256619153</v>
+        <v>5.896040256619412</v>
       </c>
       <c r="E21">
-        <v>56.5239212186373</v>
+        <v>56.5239212186374</v>
       </c>
       <c r="F21">
-        <v>55.36960902965016</v>
+        <v>55.3696090296501</v>
       </c>
       <c r="G21">
         <v>43.62831102380992</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>52.92262057773551</v>
+        <v>52.92262057773557</v>
       </c>
       <c r="L21">
-        <v>43.05232707943475</v>
+        <v>43.05232707943485</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.07452091795648</v>
+        <v>23.0745209179565</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.377092104976892</v>
+        <v>6.377092104977086</v>
       </c>
       <c r="E22">
-        <v>58.89856439110827</v>
+        <v>58.89856439110852</v>
       </c>
       <c r="F22">
-        <v>58.84068138415061</v>
+        <v>58.84068138415053</v>
       </c>
       <c r="G22">
-        <v>46.42565331349138</v>
+        <v>46.42565331349137</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>55.31879189464256</v>
+        <v>55.31879189464265</v>
       </c>
       <c r="L22">
-        <v>44.97007637688909</v>
+        <v>44.97007637688915</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.56336695906793</v>
+        <v>22.56336695906792</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.116629890469205</v>
+        <v>6.116629890469192</v>
       </c>
       <c r="E23">
-        <v>57.63047271012307</v>
+        <v>57.63047271012321</v>
       </c>
       <c r="F23">
-        <v>56.9696154990671</v>
+        <v>56.96961549906724</v>
       </c>
       <c r="G23">
-        <v>44.9173449677211</v>
+        <v>44.91734496772121</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>54.03752901934443</v>
+        <v>54.03752901934455</v>
       </c>
       <c r="L23">
-        <v>43.94514538643233</v>
+        <v>43.94514538643238</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.6125968644884</v>
+        <v>20.61259686448835</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.199210550778059</v>
+        <v>5.199210550777987</v>
       </c>
       <c r="E24">
-        <v>52.81931388591104</v>
+        <v>52.81931388591114</v>
       </c>
       <c r="F24">
-        <v>50.21844964132891</v>
+        <v>50.21844964132919</v>
       </c>
       <c r="G24">
-        <v>39.48274736543998</v>
+        <v>39.48274736544018</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>49.20906969128234</v>
+        <v>49.20906969128239</v>
       </c>
       <c r="L24">
-        <v>40.07286482521432</v>
+        <v>40.07286482521433</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.43737125286127</v>
+        <v>18.4373712528613</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.29682275487228</v>
+        <v>4.296822754872403</v>
       </c>
       <c r="E25">
-        <v>47.49640068326708</v>
+        <v>47.49640068326732</v>
       </c>
       <c r="F25">
-        <v>43.31374011523938</v>
+        <v>43.31374011523942</v>
       </c>
       <c r="G25">
-        <v>33.93461887983867</v>
+        <v>33.93461887983875</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>43.91474367297847</v>
+        <v>43.91474367297861</v>
       </c>
       <c r="L25">
-        <v>35.81315937778912</v>
+        <v>35.81315937778922</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_21/res_line/loading_percent.xlsx
@@ -418,16 +418,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.668846348598866</v>
+        <v>3.668846348598673</v>
       </c>
       <c r="E2">
-        <v>43.3875435410746</v>
+        <v>43.38754354107452</v>
       </c>
       <c r="F2">
-        <v>38.3413761541718</v>
+        <v>38.34137615417148</v>
       </c>
       <c r="G2">
-        <v>29.94268218282481</v>
+        <v>29.94268218282451</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>39.85085004558386</v>
+        <v>39.85085004558374</v>
       </c>
       <c r="L2">
-        <v>32.53669176787678</v>
+        <v>32.53669176787674</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.53861687778244</v>
+        <v>15.53861687778245</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.253622143164379</v>
+        <v>3.253622143164432</v>
       </c>
       <c r="E3">
-        <v>40.46071102669732</v>
+        <v>40.46071102669727</v>
       </c>
       <c r="F3">
-        <v>34.97589960453951</v>
+        <v>34.97589960453959</v>
       </c>
       <c r="G3">
-        <v>27.24058628058356</v>
+        <v>27.24058628058362</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>36.96245824320384</v>
+        <v>36.96245824320379</v>
       </c>
       <c r="L3">
-        <v>30.20565216746508</v>
+        <v>30.20565216746506</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.76212247071639</v>
+        <v>14.76212247071641</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.000820213656196</v>
+        <v>3.000820213656183</v>
       </c>
       <c r="E4">
-        <v>38.58800371799354</v>
+        <v>38.58800371799357</v>
       </c>
       <c r="F4">
-        <v>32.89738419570718</v>
+        <v>32.8973841957072</v>
       </c>
       <c r="G4">
-        <v>25.57086617006227</v>
+        <v>25.57086617006225</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>35.11503664022908</v>
+        <v>35.11503664022914</v>
       </c>
       <c r="L4">
-        <v>28.71409087264469</v>
+        <v>28.71409087264475</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.43683343462471</v>
+        <v>14.43683343462477</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.897982135270752</v>
+        <v>2.897982135270502</v>
       </c>
       <c r="E5">
-        <v>37.80523602462277</v>
+        <v>37.80523602462254</v>
       </c>
       <c r="F5">
-        <v>32.04580753763172</v>
+        <v>32.04580753763175</v>
       </c>
       <c r="G5">
-        <v>24.88642081804348</v>
+        <v>24.88642081804345</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>34.34264294318092</v>
+        <v>34.3426429431808</v>
       </c>
       <c r="L5">
-        <v>28.09039208785694</v>
+        <v>28.09039208785689</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -570,16 +570,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.880907501604759</v>
+        <v>2.880907501604699</v>
       </c>
       <c r="E6">
-        <v>37.67405815888733</v>
+        <v>37.67405815888753</v>
       </c>
       <c r="F6">
-        <v>31.90409287505896</v>
+        <v>31.90409287505915</v>
       </c>
       <c r="G6">
-        <v>24.77249406176675</v>
+        <v>24.77249406176687</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>34.21318097340848</v>
+        <v>34.2131809734086</v>
       </c>
       <c r="L6">
-        <v>27.98584969085746</v>
+        <v>27.98584969085753</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.75777175880643</v>
+        <v>14.75777175880651</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.999433002301254</v>
+        <v>2.999433002301213</v>
       </c>
       <c r="E7">
-        <v>38.57752718142896</v>
+        <v>38.57752718142905</v>
       </c>
       <c r="F7">
-        <v>32.88591967811077</v>
+        <v>32.88591967811097</v>
       </c>
       <c r="G7">
-        <v>25.56165329009002</v>
+        <v>25.5616532900902</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>35.10470021628714</v>
+        <v>35.10470021628719</v>
       </c>
       <c r="L7">
-        <v>28.70574459801102</v>
+        <v>28.70574459801111</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.33775599880762</v>
+        <v>16.33775599880758</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.524994411175274</v>
+        <v>3.524994411175335</v>
       </c>
       <c r="E8">
-        <v>42.39364564430846</v>
+        <v>42.3936456443084</v>
       </c>
       <c r="F8">
-        <v>37.1823956812049</v>
+        <v>37.18239568120506</v>
       </c>
       <c r="G8">
-        <v>29.01226683027512</v>
+        <v>29.01226683027525</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>38.86965210543998</v>
       </c>
       <c r="L8">
-        <v>31.74499684739136</v>
+        <v>31.74499684739135</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.18229042647512</v>
+        <v>19.1822904264751</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.593106491046983</v>
+        <v>4.593106491046914</v>
       </c>
       <c r="E9">
-        <v>49.31493337158028</v>
+        <v>49.31493337158015</v>
       </c>
       <c r="F9">
-        <v>45.61126579007069</v>
+        <v>45.61126579007018</v>
       </c>
       <c r="G9">
-        <v>35.77986833405379</v>
+        <v>35.77986833405333</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>45.71894610069565</v>
+        <v>45.71894610069555</v>
       </c>
       <c r="L9">
-        <v>37.26609570099765</v>
+        <v>37.26609570099757</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.14605032333224</v>
+        <v>21.1460503233323</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.438937317847822</v>
+        <v>5.438937317847627</v>
       </c>
       <c r="E10">
-        <v>54.13099111507596</v>
+        <v>54.1309911150762</v>
       </c>
       <c r="F10">
-        <v>52.0076059136911</v>
+        <v>52.00760591369092</v>
       </c>
       <c r="G10">
-        <v>40.9219048121637</v>
+        <v>40.92190481216353</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>50.52078573327967</v>
+        <v>50.52078573327983</v>
       </c>
       <c r="L10">
-        <v>41.12620034238905</v>
+        <v>41.12620034238915</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -760,16 +760,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.849904186640036</v>
+        <v>5.84990418664009</v>
       </c>
       <c r="E11">
-        <v>56.28860453313739</v>
+        <v>56.28860453313747</v>
       </c>
       <c r="F11">
-        <v>55.0331514619651</v>
+        <v>55.03315146196499</v>
       </c>
       <c r="G11">
-        <v>43.35733355274207</v>
+        <v>43.35733355274201</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>52.68588641796267</v>
+        <v>52.68588641796272</v>
       </c>
       <c r="L11">
-        <v>42.86264177777193</v>
+        <v>42.86264177777197</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.3507304320946</v>
+        <v>22.35073043209456</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.010914171465351</v>
+        <v>6.010914171465359</v>
       </c>
       <c r="E12">
-        <v>57.10396663105895</v>
+        <v>57.10396663105891</v>
       </c>
       <c r="F12">
-        <v>56.2046091724779</v>
+        <v>56.20460917247788</v>
       </c>
       <c r="G12">
         <v>44.30093662850705</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>53.50669358251482</v>
+        <v>53.50669358251478</v>
       </c>
       <c r="L12">
-        <v>43.52015972101943</v>
+        <v>43.52015972101938</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.27976521042434</v>
+        <v>22.27976521042439</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.975965337653526</v>
+        <v>5.975965337653715</v>
       </c>
       <c r="E13">
-        <v>56.92837600078848</v>
+        <v>56.9283760007885</v>
       </c>
       <c r="F13">
-        <v>55.95098403334661</v>
+        <v>55.95098403334669</v>
       </c>
       <c r="G13">
-        <v>44.09661179474889</v>
+        <v>44.09661179474897</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>53.32980266049876</v>
+        <v>53.32980266049883</v>
       </c>
       <c r="L13">
-        <v>43.37849758865944</v>
+        <v>43.37849758865951</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.863031032938057</v>
+        <v>5.86303103293806</v>
       </c>
       <c r="E14">
-        <v>56.35569647182614</v>
+        <v>56.35569647182598</v>
       </c>
       <c r="F14">
-        <v>55.12894654528515</v>
+        <v>55.12894654528518</v>
       </c>
       <c r="G14">
-        <v>43.43448232589696</v>
+        <v>43.43448232589699</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>52.75336993861234</v>
+        <v>52.75336993861222</v>
       </c>
       <c r="L14">
-        <v>42.91671730618287</v>
+        <v>42.91671730618278</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.90610284138119</v>
+        <v>21.9061028413812</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.79461586505787</v>
+        <v>5.794615865058002</v>
       </c>
       <c r="E15">
-        <v>56.00480716315575</v>
+        <v>56.00480716315579</v>
       </c>
       <c r="F15">
-        <v>54.62911044897216</v>
+        <v>54.62911044897209</v>
       </c>
       <c r="G15">
-        <v>43.03196465774504</v>
+        <v>43.03196465774502</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>52.40054240748295</v>
+        <v>52.40054240748299</v>
       </c>
       <c r="L15">
-        <v>42.63395859818893</v>
+        <v>42.63395859818895</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.08858349756303</v>
+        <v>21.08858349756306</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.412731530284446</v>
+        <v>5.412731530284558</v>
       </c>
       <c r="E16">
-        <v>53.98955702393354</v>
+        <v>53.98955702393401</v>
       </c>
       <c r="F16">
-        <v>51.81290943014476</v>
+        <v>51.81290943014483</v>
       </c>
       <c r="G16">
-        <v>40.76525962566861</v>
+        <v>40.76525962566869</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>50.37919102281415</v>
+        <v>50.37919102281445</v>
       </c>
       <c r="L16">
-        <v>41.01254230146569</v>
+        <v>41.01254230146593</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.58300386797858</v>
+        <v>20.5830038679786</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.186139759944148</v>
+        <v>5.186139759944161</v>
       </c>
       <c r="E17">
-        <v>52.74662805779383</v>
+        <v>52.74662805779381</v>
       </c>
       <c r="F17">
-        <v>50.12037080228108</v>
+        <v>50.12037080228104</v>
       </c>
       <c r="G17">
-        <v>39.40387566126829</v>
+        <v>39.40387566126826</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>49.13647429487663</v>
+        <v>49.13647429487666</v>
       </c>
       <c r="L17">
-        <v>40.01454239369585</v>
+        <v>40.01454239369586</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.29039846668539</v>
+        <v>20.29039846668532</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.058151541921088</v>
+        <v>5.058151541921103</v>
       </c>
       <c r="E18">
-        <v>52.02836334365697</v>
+        <v>52.02836334365674</v>
       </c>
       <c r="F18">
-        <v>49.15706720098031</v>
+        <v>49.15706720098029</v>
       </c>
       <c r="G18">
         <v>38.62932847765494</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>48.41960185538539</v>
+        <v>48.41960185538521</v>
       </c>
       <c r="L18">
-        <v>39.43847044967154</v>
+        <v>39.43847044967141</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1064,16 +1064,16 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.015179076391786</v>
+        <v>5.015179076391731</v>
       </c>
       <c r="E19">
-        <v>51.78451618069537</v>
+        <v>51.78451618069524</v>
       </c>
       <c r="F19">
-        <v>48.83243737609275</v>
+        <v>48.83243737609249</v>
       </c>
       <c r="G19">
-        <v>38.36835239563158</v>
+        <v>38.36835239563137</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>48.1764283960727</v>
+        <v>48.17642839607265</v>
       </c>
       <c r="L19">
-        <v>39.2430007441145</v>
+        <v>39.24300074411446</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.6370043727483</v>
+        <v>20.63700437274827</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.210008691512654</v>
+        <v>5.210008691512591</v>
       </c>
       <c r="E20">
-        <v>52.87926927660139</v>
+        <v>52.87926927660163</v>
       </c>
       <c r="F20">
-        <v>50.29943378198061</v>
+        <v>50.29943378198076</v>
       </c>
       <c r="G20">
-        <v>39.54787366786744</v>
+        <v>39.54787366786755</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>49.26895760523568</v>
+        <v>49.26895760523582</v>
       </c>
       <c r="L20">
-        <v>40.12097613500175</v>
+        <v>40.12097613500183</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.11621047177114</v>
+        <v>22.1162104717711</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.896040256619412</v>
+        <v>5.896040256619153</v>
       </c>
       <c r="E21">
-        <v>56.5239212186374</v>
+        <v>56.5239212186373</v>
       </c>
       <c r="F21">
-        <v>55.3696090296501</v>
+        <v>55.36960902965016</v>
       </c>
       <c r="G21">
         <v>43.62831102380992</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>52.92262057773557</v>
+        <v>52.92262057773551</v>
       </c>
       <c r="L21">
-        <v>43.05232707943485</v>
+        <v>43.05232707943475</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.0745209179565</v>
+        <v>23.07452091795648</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.377092104977086</v>
+        <v>6.377092104976892</v>
       </c>
       <c r="E22">
-        <v>58.89856439110852</v>
+        <v>58.89856439110827</v>
       </c>
       <c r="F22">
-        <v>58.84068138415053</v>
+        <v>58.84068138415061</v>
       </c>
       <c r="G22">
-        <v>46.42565331349137</v>
+        <v>46.42565331349138</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>55.31879189464265</v>
+        <v>55.31879189464256</v>
       </c>
       <c r="L22">
-        <v>44.97007637688915</v>
+        <v>44.97007637688909</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.56336695906792</v>
+        <v>22.56336695906793</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.116629890469192</v>
+        <v>6.116629890469205</v>
       </c>
       <c r="E23">
-        <v>57.63047271012321</v>
+        <v>57.63047271012307</v>
       </c>
       <c r="F23">
-        <v>56.96961549906724</v>
+        <v>56.9696154990671</v>
       </c>
       <c r="G23">
-        <v>44.91734496772121</v>
+        <v>44.9173449677211</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>54.03752901934455</v>
+        <v>54.03752901934443</v>
       </c>
       <c r="L23">
-        <v>43.94514538643238</v>
+        <v>43.94514538643233</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.61259686448835</v>
+        <v>20.6125968644884</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.199210550777987</v>
+        <v>5.199210550778059</v>
       </c>
       <c r="E24">
-        <v>52.81931388591114</v>
+        <v>52.81931388591104</v>
       </c>
       <c r="F24">
-        <v>50.21844964132919</v>
+        <v>50.21844964132891</v>
       </c>
       <c r="G24">
-        <v>39.48274736544018</v>
+        <v>39.48274736543998</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>49.20906969128239</v>
+        <v>49.20906969128234</v>
       </c>
       <c r="L24">
-        <v>40.07286482521433</v>
+        <v>40.07286482521432</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.4373712528613</v>
+        <v>18.43737125286127</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.296822754872403</v>
+        <v>4.29682275487228</v>
       </c>
       <c r="E25">
-        <v>47.49640068326732</v>
+        <v>47.49640068326708</v>
       </c>
       <c r="F25">
-        <v>43.31374011523942</v>
+        <v>43.31374011523938</v>
       </c>
       <c r="G25">
-        <v>33.93461887983875</v>
+        <v>33.93461887983867</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>43.91474367297861</v>
+        <v>43.91474367297847</v>
       </c>
       <c r="L25">
-        <v>35.81315937778922</v>
+        <v>35.81315937778912</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.74781885638454</v>
+        <v>16.74715694462763</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.668846348598673</v>
+        <v>3.661424476626521</v>
       </c>
       <c r="E2">
-        <v>43.38754354107452</v>
+        <v>43.38309066711195</v>
       </c>
       <c r="F2">
-        <v>38.34137615417148</v>
+        <v>38.30015935469383</v>
       </c>
       <c r="G2">
-        <v>29.94268218282451</v>
+        <v>29.97986561916403</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>29.44355456780434</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,36 +442,39 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>39.85085004558374</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>32.53669176787674</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>39.84785398557082</v>
+      </c>
+      <c r="M2">
+        <v>32.53429285150412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.53861687778245</v>
+        <v>15.53811457250164</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.253622143164432</v>
+        <v>3.247055010366657</v>
       </c>
       <c r="E3">
-        <v>40.46071102669727</v>
+        <v>40.45698101216792</v>
       </c>
       <c r="F3">
-        <v>34.97589960453959</v>
+        <v>34.93876741096547</v>
       </c>
       <c r="G3">
-        <v>27.24058628058362</v>
+        <v>27.27478497844244</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>26.8257657463176</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,36 +483,39 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>36.96245824320379</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>30.20565216746506</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>36.96010104446573</v>
+      </c>
+      <c r="M3">
+        <v>30.2037427878969</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.76212247071641</v>
+        <v>14.76170740483996</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.000820213656183</v>
+        <v>2.994768626447188</v>
       </c>
       <c r="E4">
-        <v>38.58800371799357</v>
+        <v>38.58469293787672</v>
       </c>
       <c r="F4">
-        <v>32.8973841957072</v>
+        <v>32.86268663803998</v>
       </c>
       <c r="G4">
-        <v>25.57086617006225</v>
+        <v>25.60316751701236</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>25.21745297937185</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,36 +524,39 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>35.11503664022914</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>28.71409087264475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>35.11303357986631</v>
+      </c>
+      <c r="M4">
+        <v>28.71245500677679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.43683343462477</v>
+        <v>14.43645176426887</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.897982135270502</v>
+        <v>2.892139543889451</v>
       </c>
       <c r="E5">
-        <v>37.80523602462254</v>
+        <v>37.80209229902661</v>
       </c>
       <c r="F5">
-        <v>32.04580753763175</v>
+        <v>32.01209021572377</v>
       </c>
       <c r="G5">
-        <v>24.88642081804345</v>
+        <v>24.9179352125689</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>24.56065947338904</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,36 +565,39 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>34.3426429431808</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>28.09039208785689</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>34.34077683577055</v>
+      </c>
+      <c r="M5">
+        <v>28.08886254066926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.38227614903332</v>
+        <v>14.3818999074308</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.880907501604699</v>
+        <v>2.875099578395923</v>
       </c>
       <c r="E6">
-        <v>37.67405815888753</v>
+        <v>37.67094200629831</v>
       </c>
       <c r="F6">
-        <v>31.90409287505915</v>
+        <v>31.87053776236537</v>
       </c>
       <c r="G6">
-        <v>24.77249406176687</v>
+        <v>24.8038770187716</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>24.45148962624379</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,36 +606,39 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>34.2131809734086</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>27.98584969085753</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>34.21133721827435</v>
+      </c>
+      <c r="M6">
+        <v>27.98433752934359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.75777175880651</v>
+        <v>14.75735715140877</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.999433002301213</v>
+        <v>2.993384236690359</v>
       </c>
       <c r="E7">
-        <v>38.57752718142905</v>
+        <v>38.5742186667316</v>
       </c>
       <c r="F7">
-        <v>32.88591967811097</v>
+        <v>32.85123538097147</v>
       </c>
       <c r="G7">
-        <v>25.5616532900902</v>
+        <v>25.59394407661403</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>25.20860208751458</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,36 +647,39 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>35.10470021628719</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>28.70574459801111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>35.10269903013968</v>
+      </c>
+      <c r="M7">
+        <v>28.7041101848671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.33775599880758</v>
+        <v>16.33715172997846</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.524994411175335</v>
+        <v>3.51787002483078</v>
       </c>
       <c r="E8">
-        <v>42.3936456443084</v>
+        <v>42.38944871338182</v>
       </c>
       <c r="F8">
-        <v>37.18239568120506</v>
+        <v>37.14260698185631</v>
       </c>
       <c r="G8">
-        <v>29.01226683027525</v>
+        <v>29.04843621095847</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>28.54031859894642</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,36 +688,39 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>38.86965210543998</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>31.74499684739135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>38.8668857498201</v>
+      </c>
+      <c r="M8">
+        <v>31.74277346929638</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.1822904264751</v>
+        <v>19.18119397854717</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.593106491046914</v>
+        <v>4.583721257242621</v>
       </c>
       <c r="E9">
-        <v>49.31493337158015</v>
+        <v>49.30865698116529</v>
       </c>
       <c r="F9">
-        <v>45.61126579007018</v>
+        <v>45.56046752951535</v>
       </c>
       <c r="G9">
-        <v>35.77986833405333</v>
+        <v>35.82297898610982</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>35.14391875094418</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,36 +729,39 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>45.71894610069555</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>37.26609570099757</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>45.71423839382698</v>
+      </c>
+      <c r="M9">
+        <v>37.26239959624876</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.1460503233323</v>
+        <v>21.14444405959889</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.438937317847627</v>
+        <v>5.427632943596785</v>
       </c>
       <c r="E10">
-        <v>54.1309911150762</v>
+        <v>54.12268982462361</v>
       </c>
       <c r="F10">
-        <v>52.00760591369092</v>
+        <v>51.94721197105351</v>
       </c>
       <c r="G10">
-        <v>40.92190481216353</v>
+        <v>40.96936721743791</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>40.1995088557657</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,36 +770,39 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>50.52078573327983</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>41.12620034238915</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>50.51408920430717</v>
+      </c>
+      <c r="M10">
+        <v>41.12101040709742</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.02099336233871</v>
+        <v>22.01909272235261</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.84990418664009</v>
+        <v>5.837604659621347</v>
       </c>
       <c r="E11">
-        <v>56.28860453313747</v>
+        <v>56.27915970809453</v>
       </c>
       <c r="F11">
-        <v>55.03315146196499</v>
+        <v>54.96770427322949</v>
       </c>
       <c r="G11">
-        <v>43.35733355274201</v>
+        <v>43.40645786039619</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>42.60164470828404</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,36 +811,39 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>52.68588641796272</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>42.86264177777197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>52.67804500064758</v>
+      </c>
+      <c r="M11">
+        <v>42.85659541110037</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.35073043209456</v>
+        <v>22.3487049061701</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.010914171465359</v>
+        <v>5.998210664301719</v>
       </c>
       <c r="E12">
-        <v>57.10396663105891</v>
+        <v>57.09404021976844</v>
       </c>
       <c r="F12">
-        <v>56.20460917247788</v>
+        <v>56.13709697296571</v>
       </c>
       <c r="G12">
-        <v>44.30093662850705</v>
+        <v>44.35061940592374</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>43.53340521284947</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,36 +852,39 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>53.50669358251478</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>43.52015972101938</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>53.49836683731009</v>
+      </c>
+      <c r="M12">
+        <v>43.51375083424277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.27976521042439</v>
+        <v>22.27776727574171</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.975965337653715</v>
+        <v>5.963350253422979</v>
       </c>
       <c r="E13">
-        <v>56.9283760007885</v>
+        <v>56.91855583384208</v>
       </c>
       <c r="F13">
-        <v>55.95098403334669</v>
+        <v>55.88392446886766</v>
       </c>
       <c r="G13">
-        <v>44.09661179474897</v>
+        <v>44.14617803512423</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>43.3315985715196</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,36 +893,39 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>53.32980266049883</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>43.37849758865951</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>53.32158312516337</v>
+      </c>
+      <c r="M13">
+        <v>43.37216875976133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.04814539797218</v>
+        <v>22.04623478672267</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.86303103293806</v>
+        <v>5.850698888135343</v>
       </c>
       <c r="E14">
-        <v>56.35569647182598</v>
+        <v>56.34621312773969</v>
       </c>
       <c r="F14">
-        <v>55.12894654528518</v>
+        <v>55.06333290870074</v>
       </c>
       <c r="G14">
-        <v>43.43448232589699</v>
+        <v>43.48365420399191</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>42.67780446513115</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,36 +934,39 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>52.75336993861222</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>42.91671730618278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>52.74548976473743</v>
+      </c>
+      <c r="M14">
+        <v>42.91064197960451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.9061028413812</v>
+        <v>21.90424379820564</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.794615865058002</v>
+        <v>5.782453121223637</v>
       </c>
       <c r="E15">
-        <v>56.00480716315579</v>
+        <v>55.99552316261212</v>
       </c>
       <c r="F15">
-        <v>54.62911044897209</v>
+        <v>54.56436071058713</v>
       </c>
       <c r="G15">
-        <v>43.03196465774502</v>
+        <v>43.08088472197559</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>42.28048891872899</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,36 +975,39 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>52.40054240748299</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>42.63395859818895</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>52.3928626835199</v>
+      </c>
+      <c r="M15">
+        <v>42.62803307347794</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.08858349756306</v>
+        <v>21.08699488785023</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.412731530284558</v>
+        <v>5.401489025120739</v>
       </c>
       <c r="E16">
-        <v>53.98955702393401</v>
+        <v>53.98132476427635</v>
       </c>
       <c r="F16">
-        <v>51.81290943014483</v>
+        <v>51.75282799762952</v>
       </c>
       <c r="G16">
-        <v>40.76525962566869</v>
+        <v>40.81260521857491</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>40.04515209124732</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,36 +1016,39 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>50.37919102281445</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>41.01254230146593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>50.37256320788089</v>
+      </c>
+      <c r="M16">
+        <v>41.00740383284098</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.5830038679786</v>
+        <v>20.58156267650791</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.186139759944161</v>
+        <v>5.175425117805501</v>
       </c>
       <c r="E17">
-        <v>52.74662805779381</v>
+        <v>52.73897471436362</v>
       </c>
       <c r="F17">
-        <v>50.12037080228104</v>
+        <v>50.06294744048674</v>
       </c>
       <c r="G17">
-        <v>39.40387566126826</v>
+        <v>39.45016047742607</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>38.70448362604424</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,36 +1057,39 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>49.13647429487666</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>40.01454239369586</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>49.13042059773159</v>
+      </c>
+      <c r="M17">
+        <v>40.00983428330198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.29039846668532</v>
+        <v>20.28903654647474</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.058151541921103</v>
+        <v>5.04772979116607</v>
       </c>
       <c r="E18">
-        <v>52.02836334365674</v>
+        <v>52.02102338308483</v>
       </c>
       <c r="F18">
-        <v>49.15706720098029</v>
+        <v>49.10111216924452</v>
       </c>
       <c r="G18">
-        <v>38.62932847765494</v>
+        <v>38.67497535915751</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>37.94242500954381</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,36 +1098,39 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>48.41960185538521</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>39.43847044967141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>48.41385716759601</v>
+      </c>
+      <c r="M18">
+        <v>39.43399425563618</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.19098968010049</v>
+        <v>20.18965375200148</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.015179076391731</v>
+        <v>5.004854869909434</v>
       </c>
       <c r="E19">
-        <v>51.78451618069524</v>
+        <v>51.77727933734849</v>
       </c>
       <c r="F19">
-        <v>48.83243737609249</v>
+        <v>48.77697029272707</v>
       </c>
       <c r="G19">
-        <v>38.36835239563137</v>
+        <v>38.41377904544848</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>37.68577896207748</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,36 +1139,39 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>48.17642839607265</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>39.24300074411446</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>48.17078508143322</v>
+      </c>
+      <c r="M19">
+        <v>39.23860068037111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.63700437274827</v>
+        <v>20.6355480845803</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.210008691512591</v>
+        <v>5.199239021213951</v>
       </c>
       <c r="E20">
-        <v>52.87926927660163</v>
+        <v>52.87155642812264</v>
       </c>
       <c r="F20">
-        <v>50.29943378198076</v>
+        <v>50.24173402420319</v>
       </c>
       <c r="G20">
-        <v>39.54787366786755</v>
+        <v>39.59427441797266</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>38.84621780742071</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,36 +1180,39 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>49.26895760523582</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>40.12097613500183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>49.26284508435032</v>
+      </c>
+      <c r="M20">
+        <v>40.11622390020484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.1162104717711</v>
+        <v>22.11427462337124</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.896040256619153</v>
+        <v>5.883625845205191</v>
       </c>
       <c r="E21">
-        <v>56.5239212186373</v>
+        <v>56.51434043778829</v>
       </c>
       <c r="F21">
-        <v>55.36960902965016</v>
+        <v>55.30357536522952</v>
       </c>
       <c r="G21">
-        <v>43.62831102380992</v>
+        <v>43.6776009436666</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>42.86916495295697</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,36 +1221,39 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>52.92262057773551</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>43.05232707943475</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>52.91464231687474</v>
+      </c>
+      <c r="M21">
+        <v>43.04617846798035</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.07452091795648</v>
+        <v>23.07218920880738</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.377092104976892</v>
+        <v>6.363435435264283</v>
       </c>
       <c r="E22">
-        <v>58.89856439110827</v>
+        <v>58.88746392826979</v>
       </c>
       <c r="F22">
-        <v>58.84068138415061</v>
+        <v>58.76826795231869</v>
       </c>
       <c r="G22">
-        <v>46.42565331349138</v>
+        <v>46.47639164175658</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>45.6333365489994</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,36 +1262,39 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>55.31879189464256</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>44.97007637688909</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>55.30927582528561</v>
+      </c>
+      <c r="M22">
+        <v>44.96278015401666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.56336695906793</v>
+        <v>22.56125629299849</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.116629890469205</v>
+        <v>6.10365632507383</v>
       </c>
       <c r="E23">
-        <v>57.63047271012307</v>
+        <v>57.62021895767635</v>
       </c>
       <c r="F23">
-        <v>56.9696154990671</v>
+        <v>56.90071868210064</v>
       </c>
       <c r="G23">
-        <v>44.9173449677211</v>
+        <v>44.96736398320157</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>44.14236530453861</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,36 +1303,39 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>54.03752901934443</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>43.94514538643233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>54.02887149325923</v>
+      </c>
+      <c r="M23">
+        <v>43.93848957078863</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.6125968644884</v>
+        <v>20.61114741831582</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.199210550778059</v>
+        <v>5.188465791039041</v>
       </c>
       <c r="E24">
-        <v>52.81931388591104</v>
+        <v>52.81162799912308</v>
       </c>
       <c r="F24">
-        <v>50.21844964132891</v>
+        <v>50.16087502503417</v>
       </c>
       <c r="G24">
-        <v>39.48274736543998</v>
+        <v>39.52909578764241</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>38.78211316945466</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,36 +1344,39 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>49.20906969128234</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>40.07286482521432</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>49.20298382905494</v>
+      </c>
+      <c r="M24">
+        <v>40.06813258649612</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.43737125286127</v>
+        <v>18.43642681846022</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.29682275487228</v>
+        <v>4.288078714088808</v>
       </c>
       <c r="E25">
-        <v>47.49640068326708</v>
+        <v>47.49074674654376</v>
       </c>
       <c r="F25">
-        <v>43.31374011523938</v>
+        <v>43.26609918324354</v>
       </c>
       <c r="G25">
-        <v>33.93461887983867</v>
+        <v>33.97594902488269</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>33.33655359091222</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1385,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>43.91474367297847</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>35.81315937778912</v>
+        <v>43.91063196114563</v>
+      </c>
+      <c r="M25">
+        <v>35.80991325762361</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.74715694462763</v>
+        <v>7.246630629126239</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.661424476626521</v>
+        <v>7.402498244050958</v>
       </c>
       <c r="E2">
-        <v>43.38309066711195</v>
+        <v>6.674368141838404</v>
       </c>
       <c r="F2">
-        <v>38.30015935469383</v>
+        <v>79.77208480407081</v>
       </c>
       <c r="G2">
-        <v>29.97986561916403</v>
+        <v>1.888925321385869</v>
       </c>
       <c r="H2">
-        <v>29.44355456780434</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.373806964368668</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>39.84785398557082</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>32.53429285150412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>20.23732044346318</v>
+      </c>
+      <c r="O2">
+        <v>62.17883228452394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.53811457250164</v>
+        <v>6.893046346234831</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.247055010366657</v>
+        <v>6.858439315007852</v>
       </c>
       <c r="E3">
-        <v>40.45698101216792</v>
+        <v>6.584303699712754</v>
       </c>
       <c r="F3">
-        <v>34.93876741096547</v>
+        <v>73.14857926274048</v>
       </c>
       <c r="G3">
-        <v>27.27478497844244</v>
+        <v>1.928232960942239</v>
       </c>
       <c r="H3">
-        <v>26.8257657463176</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.089510096088161</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>36.96010104446573</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>30.2037427878969</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>19.40490238992829</v>
+      </c>
+      <c r="O3">
+        <v>56.90359891601415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.76170740483996</v>
+        <v>6.669007590712734</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.994768626447188</v>
+        <v>6.529207539556077</v>
       </c>
       <c r="E4">
-        <v>38.58469293787672</v>
+        <v>6.53984233009564</v>
       </c>
       <c r="F4">
-        <v>32.86268663803998</v>
+        <v>69.12637117222306</v>
       </c>
       <c r="G4">
-        <v>25.60316751701236</v>
+        <v>1.95142071216523</v>
       </c>
       <c r="H4">
-        <v>25.21745297937185</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.930625327801776</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>35.11303357986631</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>28.71245500677679</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>18.87747365336573</v>
+      </c>
+      <c r="O4">
+        <v>53.69107898492225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.43645176426887</v>
+        <v>6.576098376390281</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.892139543889451</v>
+        <v>6.395361299177736</v>
       </c>
       <c r="E5">
-        <v>37.80209229902661</v>
+        <v>6.524062241392425</v>
       </c>
       <c r="F5">
-        <v>32.01209021572377</v>
+        <v>67.56077756968151</v>
       </c>
       <c r="G5">
-        <v>24.9179352125689</v>
+        <v>1.960720769119815</v>
       </c>
       <c r="H5">
-        <v>24.56065947338904</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.869177116812495</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>34.34077683577055</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>28.08886254066926</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>18.65875149195254</v>
+      </c>
+      <c r="O5">
+        <v>52.38116397892081</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.3818999074308</v>
+        <v>6.560577813400405</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.875099578395923</v>
+        <v>6.373134800987981</v>
       </c>
       <c r="E6">
-        <v>37.67094200629831</v>
+        <v>6.521573783412052</v>
       </c>
       <c r="F6">
-        <v>31.87053776236537</v>
+        <v>67.3019889822439</v>
       </c>
       <c r="G6">
-        <v>24.8038770187716</v>
+        <v>1.962258140714162</v>
       </c>
       <c r="H6">
-        <v>24.45148962624379</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.859157751970127</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>34.21133721827435</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>27.98433752934359</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>18.62221383307306</v>
+      </c>
+      <c r="O6">
+        <v>52.1634354916963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.75735715140877</v>
+        <v>6.667760919611842</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.993384236690359</v>
+        <v>6.527402119893623</v>
       </c>
       <c r="E7">
-        <v>38.5742186667316</v>
+        <v>6.539620483402367</v>
       </c>
       <c r="F7">
-        <v>32.85123538097147</v>
+        <v>69.10429477498032</v>
       </c>
       <c r="G7">
-        <v>25.59394407661403</v>
+        <v>1.951546641477773</v>
       </c>
       <c r="H7">
-        <v>25.20860208751458</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.929783966391094</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>35.10269903013968</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>28.7041101848671</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>18.87453879493517</v>
+      </c>
+      <c r="O7">
+        <v>53.67342419511101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.33715172997846</v>
+        <v>7.12622788820463</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.51787002483078</v>
+        <v>7.213258142047064</v>
       </c>
       <c r="E8">
-        <v>42.38944871338182</v>
+        <v>6.640793239001697</v>
       </c>
       <c r="F8">
-        <v>37.14260698185631</v>
+        <v>77.47229729266107</v>
       </c>
       <c r="G8">
-        <v>29.04843621095847</v>
+        <v>1.902738677401448</v>
       </c>
       <c r="H8">
-        <v>28.54031859894642</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.272067810410807</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>38.8668857498201</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>31.74277346929638</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>19.95386594323658</v>
+      </c>
+      <c r="O8">
+        <v>60.3490165910256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.18119397854717</v>
+        <v>7.965389323045706</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.583721257242621</v>
+        <v>8.664962411298076</v>
       </c>
       <c r="E9">
-        <v>49.30865698116529</v>
+        <v>6.952409825375824</v>
       </c>
       <c r="F9">
-        <v>45.56046752951535</v>
+        <v>94.95297923406083</v>
       </c>
       <c r="G9">
-        <v>35.82297898610982</v>
+        <v>1.792947991798269</v>
       </c>
       <c r="H9">
-        <v>35.14391875094418</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.115743667403558</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>45.71423839382698</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>37.26239959624876</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>21.92909527242061</v>
+      </c>
+      <c r="O9">
+        <v>74.22266106534939</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.14444405959889</v>
+        <v>8.566996749135585</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.427632943596785</v>
+        <v>10.0175383640615</v>
       </c>
       <c r="E10">
-        <v>54.12268982462361</v>
+        <v>7.330862002349993</v>
       </c>
       <c r="F10">
-        <v>51.94721197105351</v>
+        <v>110.7533992537616</v>
       </c>
       <c r="G10">
-        <v>40.96936721743791</v>
+        <v>1.683228974522867</v>
       </c>
       <c r="H10">
-        <v>40.1995088557657</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.376748830937055</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>50.51408920430717</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>41.12101040709742</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>23.28076484706839</v>
+      </c>
+      <c r="O10">
+        <v>86.72160915420983</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.01909272235261</v>
+        <v>8.868737088010006</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.837604659621347</v>
+        <v>10.90589584516766</v>
       </c>
       <c r="E11">
-        <v>56.27915970809453</v>
+        <v>7.606233788383919</v>
       </c>
       <c r="F11">
-        <v>54.96770427322949</v>
+        <v>120.7463481540347</v>
       </c>
       <c r="G11">
-        <v>43.40645786039619</v>
+        <v>1.608013066026341</v>
       </c>
       <c r="H11">
-        <v>42.60164470828404</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.20170242523454</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>52.67804500064758</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>42.85659541110037</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>23.87186472340123</v>
+      </c>
+      <c r="O11">
+        <v>94.62128358126421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.3487049061701</v>
+        <v>8.980484619735547</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.998210664301719</v>
+        <v>11.39559578515147</v>
       </c>
       <c r="E12">
-        <v>57.09404021976844</v>
+        <v>7.761646801942606</v>
       </c>
       <c r="F12">
-        <v>56.13709697296571</v>
+        <v>126.0844198553617</v>
       </c>
       <c r="G12">
-        <v>44.35061940592374</v>
+        <v>1.565801687214896</v>
       </c>
       <c r="H12">
-        <v>43.53340521284947</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.63884450991058</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>53.49836683731009</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>43.51375083424277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>24.0921318123806</v>
+      </c>
+      <c r="O12">
+        <v>98.84263965221545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.27776727574171</v>
+        <v>8.956529331384502</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.963350253422979</v>
+        <v>11.27490168260968</v>
       </c>
       <c r="E13">
-        <v>56.91855583384208</v>
+        <v>7.723282320035644</v>
       </c>
       <c r="F13">
-        <v>55.88392446886766</v>
+        <v>124.7814169313002</v>
       </c>
       <c r="G13">
-        <v>44.14617803512423</v>
+        <v>1.576242065398092</v>
       </c>
       <c r="H13">
-        <v>43.3315985715196</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.53237875192841</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>53.32158312516337</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>43.37216875976133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>24.04485425157788</v>
+      </c>
+      <c r="O13">
+        <v>97.81202698021649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.04623478672267</v>
+        <v>8.877980916326704</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.850698888135343</v>
+        <v>10.94079067518079</v>
       </c>
       <c r="E14">
-        <v>56.34621312773969</v>
+        <v>7.617269309620532</v>
       </c>
       <c r="F14">
-        <v>55.06333290870074</v>
+        <v>121.1310944035733</v>
       </c>
       <c r="G14">
-        <v>43.48365420399191</v>
+        <v>1.605019587502147</v>
       </c>
       <c r="H14">
-        <v>42.67780446513115</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.2332948599207</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>52.74548976473743</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>42.91064197960451</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>23.89005854492981</v>
+      </c>
+      <c r="O14">
+        <v>94.92548071388485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.90424379820564</v>
+        <v>8.829540801259917</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.782453121223637</v>
+        <v>10.76545793682755</v>
       </c>
       <c r="E15">
-        <v>55.99552316261212</v>
+        <v>7.561930306342088</v>
       </c>
       <c r="F15">
-        <v>54.56436071058713</v>
+        <v>119.1915143888975</v>
       </c>
       <c r="G15">
-        <v>43.08088472197559</v>
+        <v>1.620034628458626</v>
       </c>
       <c r="H15">
-        <v>42.28048891872899</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.07390068044208</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>52.3928626835199</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>42.62803307347794</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>23.79477278991583</v>
+      </c>
+      <c r="O15">
+        <v>93.3920315353096</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.08699488785023</v>
+        <v>8.546924303489444</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.401489025120739</v>
+        <v>9.969211195941913</v>
       </c>
       <c r="E16">
-        <v>53.98132476427635</v>
+        <v>7.316322754357166</v>
       </c>
       <c r="F16">
-        <v>51.75282799762952</v>
+        <v>110.1998471402743</v>
       </c>
       <c r="G16">
-        <v>40.81260521857491</v>
+        <v>1.687257664279735</v>
       </c>
       <c r="H16">
-        <v>40.04515209124732</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.33080587953836</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>50.37256320788089</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>41.00740383284098</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>23.24164318204574</v>
+      </c>
+      <c r="O16">
+        <v>86.28399995624288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.58156267650791</v>
+        <v>8.376498625130655</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.175425117805501</v>
+        <v>9.574685880817126</v>
       </c>
       <c r="E17">
-        <v>52.73897471436362</v>
+        <v>7.200012779606498</v>
       </c>
       <c r="F17">
-        <v>50.06294744048674</v>
+        <v>105.647423513149</v>
       </c>
       <c r="G17">
-        <v>39.45016047742607</v>
+        <v>1.719865159645379</v>
       </c>
       <c r="H17">
-        <v>38.70448362604424</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.951981937374663</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>49.13042059773159</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>40.00983428330198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>22.8961108037632</v>
+      </c>
+      <c r="O17">
+        <v>82.68462387486662</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.28903654647474</v>
+        <v>8.291034355919727</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.04772979116607</v>
+        <v>9.366305689363401</v>
       </c>
       <c r="E18">
-        <v>52.02102338308483</v>
+        <v>7.140523075662711</v>
       </c>
       <c r="F18">
-        <v>49.10111216924452</v>
+        <v>103.2204693907702</v>
       </c>
       <c r="G18">
-        <v>38.67497535915751</v>
+        <v>1.736874594229334</v>
       </c>
       <c r="H18">
-        <v>37.94242500954381</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.749290838109365</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>48.41385716759601</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>39.43399425563618</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>22.69513864179613</v>
+      </c>
+      <c r="O18">
+        <v>80.76525836673108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.18965375200148</v>
+        <v>8.261940017627355</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.004854869909434</v>
+        <v>9.298170870193266</v>
       </c>
       <c r="E19">
-        <v>51.77727933734849</v>
+        <v>7.121397570105657</v>
       </c>
       <c r="F19">
-        <v>48.77697029272707</v>
+        <v>102.4237862141247</v>
       </c>
       <c r="G19">
-        <v>38.41377904544848</v>
+        <v>1.742402727751486</v>
       </c>
       <c r="H19">
-        <v>37.68577896207748</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.68263984652979</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>48.17078508143322</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>39.23860068037111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>22.62671469075574</v>
+      </c>
+      <c r="O19">
+        <v>80.13509993113365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.6355480845803</v>
+        <v>8.392240843817186</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.199239021213951</v>
+        <v>9.614557536746567</v>
       </c>
       <c r="E20">
-        <v>52.87155642812264</v>
+        <v>7.211558385859074</v>
       </c>
       <c r="F20">
-        <v>50.24173402420319</v>
+        <v>106.1100960420815</v>
       </c>
       <c r="G20">
-        <v>39.59427441797266</v>
+        <v>1.716593318916078</v>
       </c>
       <c r="H20">
-        <v>38.84621780742071</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.990563990034058</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>49.26284508435032</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>40.11622390020484</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>22.93312538412442</v>
+      </c>
+      <c r="O20">
+        <v>83.0504847196319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.11427462337124</v>
+        <v>8.901120589404206</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.883625845205191</v>
+        <v>11.03162877820158</v>
       </c>
       <c r="E21">
-        <v>56.51434043778829</v>
+        <v>7.646038339162972</v>
       </c>
       <c r="F21">
-        <v>55.30357536522952</v>
+        <v>122.1296282078206</v>
       </c>
       <c r="G21">
-        <v>43.6776009436666</v>
+        <v>1.597215603929602</v>
       </c>
       <c r="H21">
-        <v>42.86916495295697</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.31522637056428</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>52.91464231687474</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>43.04617846798035</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>23.93562375281778</v>
+      </c>
+      <c r="O21">
+        <v>95.71500131529275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.07218920880738</v>
+        <v>8.901120589404206</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.363435435264283</v>
+        <v>11.03162877820158</v>
       </c>
       <c r="E22">
-        <v>58.88746392826979</v>
+        <v>7.646038339162972</v>
       </c>
       <c r="F22">
-        <v>58.76826795231869</v>
+        <v>122.1296282078206</v>
       </c>
       <c r="G22">
-        <v>46.47639164175658</v>
+        <v>1.597215603929602</v>
       </c>
       <c r="H22">
-        <v>45.6333365489994</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.31522637056428</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>55.30927582528561</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>44.96278015401666</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>23.93562375281778</v>
+      </c>
+      <c r="O22">
+        <v>95.71500131529275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.56125629299849</v>
+        <v>9.051945609603328</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.10365632507383</v>
+        <v>11.86825627370822</v>
       </c>
       <c r="E23">
-        <v>57.62021895767635</v>
+        <v>7.911373752180191</v>
       </c>
       <c r="F23">
-        <v>56.90071868210064</v>
+        <v>131.1002240668959</v>
       </c>
       <c r="G23">
-        <v>44.96736398320157</v>
+        <v>1.524756523769282</v>
       </c>
       <c r="H23">
-        <v>44.14236530453861</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.04713489234226</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>54.02887149325923</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>43.93848957078863</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>24.2333524841341</v>
+      </c>
+      <c r="O23">
+        <v>102.8115972531106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.61114741831582</v>
+        <v>8.385126792662904</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.188465791039041</v>
+        <v>9.596477155415899</v>
       </c>
       <c r="E24">
-        <v>52.81162799912308</v>
+        <v>7.20631663169786</v>
       </c>
       <c r="F24">
-        <v>50.16087502503417</v>
+        <v>105.9003599322262</v>
       </c>
       <c r="G24">
-        <v>39.52909578764241</v>
+        <v>1.718077657925828</v>
       </c>
       <c r="H24">
-        <v>38.78211316945466</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.973076501322275</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>49.20298382905494</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>40.06813258649612</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>22.91639831010817</v>
+      </c>
+      <c r="O24">
+        <v>82.88463637001819</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.43642681846022</v>
+        <v>7.745392391361714</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.288078714088808</v>
+        <v>8.24759492943682</v>
       </c>
       <c r="E25">
-        <v>47.49074674654376</v>
+        <v>6.850918316656893</v>
       </c>
       <c r="F25">
-        <v>43.26609918324354</v>
+        <v>89.97070552802604</v>
       </c>
       <c r="G25">
-        <v>33.97594902488269</v>
+        <v>1.825404708733584</v>
       </c>
       <c r="H25">
-        <v>33.33655359091222</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.859831023227201</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>43.91063196114563</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>35.80991325762361</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>21.41138112085526</v>
+      </c>
+      <c r="O25">
+        <v>70.27533740571401</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_21/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.246630629126239</v>
+        <v>7.267487466568283</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.402498244050958</v>
+        <v>4.1554416328684</v>
       </c>
       <c r="E2">
-        <v>6.674368141838404</v>
+        <v>13.3258342077177</v>
       </c>
       <c r="F2">
-        <v>79.77208480407081</v>
+        <v>19.08758342319651</v>
       </c>
       <c r="G2">
-        <v>1.888925321385869</v>
+        <v>2.068250213579557</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.373806964368668</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.09454073237492</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>16.2615576965977</v>
       </c>
       <c r="N2">
-        <v>20.23732044346318</v>
+        <v>12.10905127776033</v>
       </c>
       <c r="O2">
-        <v>62.17883228452394</v>
+        <v>14.89726612773373</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.893046346234831</v>
+        <v>6.907481900436189</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.858439315007852</v>
+        <v>4.031580837539218</v>
       </c>
       <c r="E3">
-        <v>6.584303699712754</v>
+        <v>12.59026577446132</v>
       </c>
       <c r="F3">
-        <v>73.14857926274048</v>
+        <v>18.45352217601486</v>
       </c>
       <c r="G3">
-        <v>1.928232960942239</v>
+        <v>2.073424805416165</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.089510096088161</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.25332730631169</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>15.22274205634129</v>
       </c>
       <c r="N3">
-        <v>19.40490238992829</v>
+        <v>12.31800692942461</v>
       </c>
       <c r="O3">
-        <v>56.90359891601415</v>
+        <v>14.63036723519388</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.669007590712734</v>
+        <v>6.679882228967521</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.529207539556077</v>
+        <v>3.953052227311286</v>
       </c>
       <c r="E4">
-        <v>6.53984233009564</v>
+        <v>12.13013250444178</v>
       </c>
       <c r="F4">
-        <v>69.12637117222306</v>
+        <v>18.0718241655705</v>
       </c>
       <c r="G4">
-        <v>1.95142071216523</v>
+        <v>2.07669953946582</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.930625327801776</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.71088352059212</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>14.55117209307283</v>
       </c>
       <c r="N4">
-        <v>18.87747365336573</v>
+        <v>12.44920505279307</v>
       </c>
       <c r="O4">
-        <v>53.69107898492225</v>
+        <v>14.47864449530035</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.576098376390281</v>
+        <v>6.585615982950012</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.395361299177736</v>
+        <v>3.920456169221863</v>
       </c>
       <c r="E5">
-        <v>6.524062241392425</v>
+        <v>11.94070864061926</v>
       </c>
       <c r="F5">
-        <v>67.56077756968151</v>
+        <v>17.91839217855649</v>
       </c>
       <c r="G5">
-        <v>1.960720769119815</v>
+        <v>2.078059168705335</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.869177116812495</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.48338791412089</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>14.26899774735865</v>
       </c>
       <c r="N5">
-        <v>18.65875149195254</v>
+        <v>12.50342133138945</v>
       </c>
       <c r="O5">
-        <v>52.38116397892081</v>
+        <v>14.41985164403543</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.560577813400405</v>
+        <v>6.569875717581014</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.373134800987981</v>
+        <v>3.915008550658114</v>
       </c>
       <c r="E6">
-        <v>6.521573783412052</v>
+        <v>11.90914652900878</v>
       </c>
       <c r="F6">
-        <v>67.3019889822439</v>
+        <v>17.89304838547707</v>
       </c>
       <c r="G6">
-        <v>1.962258140714162</v>
+        <v>2.078286470830979</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.859157751970127</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.44522585906228</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>14.22162892920385</v>
       </c>
       <c r="N6">
-        <v>18.62221383307306</v>
+        <v>12.51246997810709</v>
       </c>
       <c r="O6">
-        <v>52.1634354916963</v>
+        <v>14.41027164853638</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.667760919611842</v>
+        <v>6.678616877870246</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.527402119893623</v>
+        <v>3.95261499575837</v>
       </c>
       <c r="E7">
-        <v>6.539620483402367</v>
+        <v>12.1275853023185</v>
       </c>
       <c r="F7">
-        <v>69.10429477498032</v>
+        <v>18.06974610831888</v>
       </c>
       <c r="G7">
-        <v>1.951546641477773</v>
+        <v>2.076717773265554</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.929783966391094</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.7078414141693</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>14.54740104263718</v>
       </c>
       <c r="N7">
-        <v>18.87453879493517</v>
+        <v>12.44993315787297</v>
       </c>
       <c r="O7">
-        <v>53.67342419511101</v>
+        <v>14.47783933943927</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.12622788820463</v>
+        <v>7.144790144591158</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.213258142047064</v>
+        <v>4.113264639028942</v>
       </c>
       <c r="E8">
-        <v>6.640793239001697</v>
+        <v>13.07409044669289</v>
       </c>
       <c r="F8">
-        <v>77.47229729266107</v>
+        <v>18.86749448023845</v>
       </c>
       <c r="G8">
-        <v>1.902738677401448</v>
+        <v>2.070014561594538</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.272067810410807</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.80991184135981</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>15.91035790864459</v>
       </c>
       <c r="N8">
-        <v>19.95386594323658</v>
+        <v>12.18051186677411</v>
       </c>
       <c r="O8">
-        <v>60.3490165910256</v>
+        <v>14.80270728096801</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.965389323045706</v>
+        <v>8.002204079790195</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.664962411298076</v>
+        <v>4.407543248751567</v>
       </c>
       <c r="E9">
-        <v>6.952409825375824</v>
+        <v>14.85542891316687</v>
       </c>
       <c r="F9">
-        <v>94.95297923406083</v>
+        <v>20.48411150942812</v>
       </c>
       <c r="G9">
-        <v>1.792947991798269</v>
+        <v>2.057613235716543</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.115743667403558</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>16.76306418272769</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>18.31715029347794</v>
       </c>
       <c r="N9">
-        <v>21.92909527242061</v>
+        <v>11.67406891133752</v>
       </c>
       <c r="O9">
-        <v>74.22266106534939</v>
+        <v>15.53669556286598</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.566996749135585</v>
+        <v>8.644101304047439</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.0175383640615</v>
+        <v>4.609810276764563</v>
       </c>
       <c r="E10">
-        <v>7.330862002349993</v>
+        <v>16.19707761711567</v>
       </c>
       <c r="F10">
-        <v>110.7533992537616</v>
+        <v>21.69375144336306</v>
       </c>
       <c r="G10">
-        <v>1.683228974522867</v>
+        <v>2.048910746655243</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.376748830937055</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>18.06961806092753</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>19.92649989689384</v>
       </c>
       <c r="N10">
-        <v>23.28076484706839</v>
+        <v>11.31369370976919</v>
       </c>
       <c r="O10">
-        <v>86.72160915420983</v>
+        <v>16.13525082644536</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.868737088010006</v>
+        <v>8.954249880649098</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.90589584516766</v>
+        <v>4.698576315300914</v>
       </c>
       <c r="E11">
-        <v>7.606233788383919</v>
+        <v>16.83854361753123</v>
       </c>
       <c r="F11">
-        <v>120.7463481540347</v>
+        <v>22.2470863383398</v>
       </c>
       <c r="G11">
-        <v>1.608013066026341</v>
+        <v>2.045029929286961</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.20170242523454</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>18.6360892735335</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>20.62503257453033</v>
       </c>
       <c r="N11">
-        <v>23.87186472340123</v>
+        <v>11.15190659025173</v>
       </c>
       <c r="O11">
-        <v>94.62128358126421</v>
+        <v>16.42037783609046</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.980484619735547</v>
+        <v>9.069245980359247</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.39559578515147</v>
+        <v>4.731707126336655</v>
       </c>
       <c r="E12">
-        <v>7.761646801942606</v>
+        <v>17.07799290445497</v>
       </c>
       <c r="F12">
-        <v>126.0844198553617</v>
+        <v>22.45694657361436</v>
       </c>
       <c r="G12">
-        <v>1.565801687214896</v>
+        <v>2.043570641203711</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.63884450991058</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>18.84659988411589</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>20.88480714764342</v>
       </c>
       <c r="N12">
-        <v>24.0921318123806</v>
+        <v>11.09091739541401</v>
       </c>
       <c r="O12">
-        <v>98.84263965221545</v>
+        <v>16.53018741638266</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.956529331384502</v>
+        <v>9.044588061365777</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.27490168260968</v>
+        <v>4.724593528447521</v>
       </c>
       <c r="E13">
-        <v>7.723282320035644</v>
+        <v>17.02657531844919</v>
       </c>
       <c r="F13">
-        <v>124.7814169313002</v>
+        <v>22.41173657646145</v>
       </c>
       <c r="G13">
-        <v>1.576242065398092</v>
+        <v>2.043884482605752</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.53237875192841</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>18.80144026713519</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>20.82906964784665</v>
       </c>
       <c r="N13">
-        <v>24.04485425157788</v>
+        <v>11.10404077976109</v>
       </c>
       <c r="O13">
-        <v>97.81202698021649</v>
+        <v>16.50645631827616</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.877980916326704</v>
+        <v>8.963759633042686</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.94079067518079</v>
+        <v>4.701311771491253</v>
       </c>
       <c r="E14">
-        <v>7.617269309620532</v>
+        <v>16.85831196089527</v>
       </c>
       <c r="F14">
-        <v>121.1310944035733</v>
+        <v>22.26434574308441</v>
       </c>
       <c r="G14">
-        <v>1.605019587502147</v>
+        <v>2.04490967200526</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.2332948599207</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>18.65348817107993</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>20.64649896753408</v>
       </c>
       <c r="N14">
-        <v>23.89005854492981</v>
+        <v>11.14688363620039</v>
       </c>
       <c r="O14">
-        <v>94.92548071388485</v>
+        <v>16.42937513817936</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.829540801259917</v>
+        <v>8.913931576800239</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.76545793682755</v>
+        <v>4.686987683327001</v>
       </c>
       <c r="E15">
-        <v>7.561930306342088</v>
+        <v>16.75479848366273</v>
       </c>
       <c r="F15">
-        <v>119.1915143888975</v>
+        <v>22.17410381449896</v>
       </c>
       <c r="G15">
-        <v>1.620034628458626</v>
+        <v>2.045538942102954</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.07390068044208</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>18.56234284866709</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>20.53405387783787</v>
       </c>
       <c r="N15">
-        <v>23.79477278991583</v>
+        <v>11.17316106014509</v>
       </c>
       <c r="O15">
-        <v>93.3920315353096</v>
+        <v>16.38239985438454</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.546924303489444</v>
+        <v>8.623487983564493</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.969211195941913</v>
+        <v>4.603942455789416</v>
       </c>
       <c r="E16">
-        <v>7.316322754357166</v>
+        <v>16.15466624442495</v>
       </c>
       <c r="F16">
-        <v>110.1998471402743</v>
+        <v>21.65764085454848</v>
       </c>
       <c r="G16">
-        <v>1.687257664279735</v>
+        <v>2.049165859269539</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.33080587953836</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>18.03203731358781</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>19.88018049881397</v>
       </c>
       <c r="N16">
-        <v>23.24164318204574</v>
+        <v>11.32430735656774</v>
       </c>
       <c r="O16">
-        <v>86.28399995624288</v>
+        <v>16.11687475594463</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.376498625130655</v>
+        <v>8.440916747554388</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.574685880817126</v>
+        <v>4.552153292950319</v>
       </c>
       <c r="E17">
-        <v>7.200012779606498</v>
+        <v>15.78022816371305</v>
       </c>
       <c r="F17">
-        <v>105.647423513149</v>
+        <v>21.34150174300426</v>
       </c>
       <c r="G17">
-        <v>1.719865159645379</v>
+        <v>2.051410195275796</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.951981937374663</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>17.6995733916674</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>19.47050839475192</v>
       </c>
       <c r="N17">
-        <v>22.8961108037632</v>
+        <v>11.41755839996793</v>
       </c>
       <c r="O17">
-        <v>82.68462387486662</v>
+        <v>15.95726634348285</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.291034355919727</v>
+        <v>8.336340805649099</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.366305689363401</v>
+        <v>4.52206081191385</v>
       </c>
       <c r="E18">
-        <v>7.140523075662711</v>
+        <v>15.5635573739169</v>
       </c>
       <c r="F18">
-        <v>103.2204693907702</v>
+        <v>21.15996070038867</v>
       </c>
       <c r="G18">
-        <v>1.736874594229334</v>
+        <v>2.052708477594991</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.749290838109365</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>17.50572274497272</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>19.23171067945826</v>
       </c>
       <c r="N18">
-        <v>22.69513864179613</v>
+        <v>11.47139834023395</v>
       </c>
       <c r="O18">
-        <v>80.76525836673108</v>
+        <v>15.86667299702171</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.261940017627355</v>
+        <v>8.306455712813404</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.298170870193266</v>
+        <v>4.511820204888316</v>
       </c>
       <c r="E19">
-        <v>7.121397570105657</v>
+        <v>15.49990219011896</v>
       </c>
       <c r="F19">
-        <v>102.4237862141247</v>
+        <v>21.09854843014438</v>
       </c>
       <c r="G19">
-        <v>1.742402727751486</v>
+        <v>2.053149351574013</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.68263984652979</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.43963706315965</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>19.15031189655893</v>
       </c>
       <c r="N19">
-        <v>22.62671469075574</v>
+        <v>11.48966369712212</v>
       </c>
       <c r="O19">
-        <v>80.13509993113365</v>
+        <v>15.83620760147128</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.392240843817186</v>
+        <v>8.460519569729135</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.614557536746567</v>
+        <v>4.55769799920796</v>
       </c>
       <c r="E20">
-        <v>7.211558385859074</v>
+        <v>15.82032907454052</v>
       </c>
       <c r="F20">
-        <v>106.1100960420815</v>
+        <v>21.3751258034274</v>
       </c>
       <c r="G20">
-        <v>1.716593318916078</v>
+        <v>2.051170522509262</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.990563990034058</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>17.73523650466342</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>19.5144457031951</v>
       </c>
       <c r="N20">
-        <v>22.93312538412442</v>
+        <v>11.4076107442198</v>
       </c>
       <c r="O20">
-        <v>83.0504847196319</v>
+        <v>15.97413185027503</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.901120589404206</v>
+        <v>8.987567188345922</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.03162877820158</v>
+        <v>4.708163413762563</v>
       </c>
       <c r="E21">
-        <v>7.646038339162972</v>
+        <v>16.90782800452346</v>
       </c>
       <c r="F21">
-        <v>122.1296282078206</v>
+        <v>22.30763000386343</v>
       </c>
       <c r="G21">
-        <v>1.597215603929602</v>
+        <v>2.044608277350988</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.31522637056428</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>18.69705370362212</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>20.70025246438633</v>
       </c>
       <c r="N21">
-        <v>23.93562375281778</v>
+        <v>11.13429243180559</v>
       </c>
       <c r="O21">
-        <v>95.71500131529275</v>
+        <v>16.45196591956768</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.901120589404206</v>
+        <v>9.317753214050732</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.03162877820158</v>
+        <v>4.803680134416175</v>
       </c>
       <c r="E22">
-        <v>7.646038339162972</v>
+        <v>17.59846185065498</v>
       </c>
       <c r="F22">
-        <v>122.1296282078206</v>
+        <v>22.91892989816864</v>
       </c>
       <c r="G22">
-        <v>1.597215603929602</v>
+        <v>2.040378990215488</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.31522637056428</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>19.30235557342311</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>21.44763561994524</v>
       </c>
       <c r="N22">
-        <v>23.93562375281778</v>
+        <v>10.95725540538249</v>
       </c>
       <c r="O22">
-        <v>95.71500131529275</v>
+        <v>16.77497033299063</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.051945609603328</v>
+        <v>9.142823374237913</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.86825627370822</v>
+        <v>4.752964003442208</v>
       </c>
       <c r="E23">
-        <v>7.911373752180191</v>
+        <v>17.23166008452214</v>
       </c>
       <c r="F23">
-        <v>131.1002240668959</v>
+        <v>22.59252980546943</v>
       </c>
       <c r="G23">
-        <v>1.524756523769282</v>
+        <v>2.042631116714164</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.04713489234226</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>18.98142045202588</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>21.05123977721572</v>
       </c>
       <c r="N23">
-        <v>24.2333524841341</v>
+        <v>11.05160917676982</v>
       </c>
       <c r="O23">
-        <v>102.8115972531106</v>
+        <v>16.60159880104276</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.385126792662904</v>
+        <v>8.451662339751188</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.596477155415899</v>
+        <v>4.555192227387278</v>
       </c>
       <c r="E24">
-        <v>7.20631663169786</v>
+        <v>15.80220704783831</v>
       </c>
       <c r="F24">
-        <v>105.9003599322262</v>
+        <v>21.35992369766678</v>
       </c>
       <c r="G24">
-        <v>1.718077657925828</v>
+        <v>2.051278853630633</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.973076501322275</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>17.71912166141869</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>19.49459184299837</v>
       </c>
       <c r="N24">
-        <v>22.91639831010817</v>
+        <v>11.4121073646479</v>
       </c>
       <c r="O24">
-        <v>82.88463637001819</v>
+        <v>15.96650331698389</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.745392391361714</v>
+        <v>7.776915179000962</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.24759492943682</v>
+        <v>4.330297369624358</v>
       </c>
       <c r="E25">
-        <v>6.850918316656893</v>
+        <v>14.38239390829381</v>
       </c>
       <c r="F25">
-        <v>89.97070552802604</v>
+        <v>20.04227065846145</v>
       </c>
       <c r="G25">
-        <v>1.825404708733584</v>
+        <v>2.060892946641522</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.859831023227201</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.2571828816884</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>17.69423052864794</v>
       </c>
       <c r="N25">
-        <v>21.41138112085526</v>
+        <v>11.80889499807486</v>
       </c>
       <c r="O25">
-        <v>70.27533740571401</v>
+        <v>15.32771125788334</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_21/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.267487466568283</v>
+        <v>7.795758356961096</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.1554416328684</v>
+        <v>4.501983508384387</v>
       </c>
       <c r="E2">
-        <v>13.3258342077177</v>
+        <v>12.53507889104725</v>
       </c>
       <c r="F2">
-        <v>19.08758342319651</v>
+        <v>23.33724731771041</v>
       </c>
       <c r="G2">
-        <v>2.068250213579557</v>
+        <v>3.619230112743357</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.09454073237492</v>
+        <v>9.912723146394059</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.2615576965977</v>
+        <v>13.55153538810813</v>
       </c>
       <c r="N2">
-        <v>12.10905127776033</v>
+        <v>18.43473513515739</v>
       </c>
       <c r="O2">
-        <v>14.89726612773373</v>
+        <v>20.77647784399818</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.907481900436189</v>
+        <v>7.723603566338228</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.031580837539218</v>
+        <v>4.458564282370052</v>
       </c>
       <c r="E3">
-        <v>12.59026577446132</v>
+        <v>12.38627156865967</v>
       </c>
       <c r="F3">
-        <v>18.45352217601486</v>
+        <v>23.29445716053176</v>
       </c>
       <c r="G3">
-        <v>2.073424805416165</v>
+        <v>3.621195632881195</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.25332730631169</v>
+        <v>9.496848281443539</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.22274205634129</v>
+        <v>13.31738852825255</v>
       </c>
       <c r="N3">
-        <v>12.31800692942461</v>
+        <v>18.49753026609397</v>
       </c>
       <c r="O3">
-        <v>14.63036723519388</v>
+        <v>20.80250768729889</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.679882228967521</v>
+        <v>7.680808492176975</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.953052227311286</v>
+        <v>4.431274144845615</v>
       </c>
       <c r="E4">
-        <v>12.13013250444178</v>
+        <v>12.29855333332908</v>
       </c>
       <c r="F4">
-        <v>18.0718241655705</v>
+        <v>23.27508232687383</v>
       </c>
       <c r="G4">
-        <v>2.07669953946582</v>
+        <v>3.622466752269673</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.71088352059212</v>
+        <v>9.229959984299446</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.55117209307283</v>
+        <v>13.17478351248557</v>
       </c>
       <c r="N4">
-        <v>12.44920505279307</v>
+        <v>18.53791511055742</v>
       </c>
       <c r="O4">
-        <v>14.47864449530035</v>
+        <v>20.82375350563835</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.585615982950012</v>
+        <v>7.663767917852403</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.920456169221863</v>
+        <v>4.419999469347108</v>
       </c>
       <c r="E5">
-        <v>11.94070864061926</v>
+        <v>12.26376859896418</v>
       </c>
       <c r="F5">
-        <v>17.91839217855649</v>
+        <v>23.26892688972621</v>
       </c>
       <c r="G5">
-        <v>2.078059168705335</v>
+        <v>3.62300095971539</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.48338791412089</v>
+        <v>9.118388169401504</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.26899774735865</v>
+        <v>13.11704217195276</v>
       </c>
       <c r="N5">
-        <v>12.50342133138945</v>
+        <v>18.55483340782999</v>
       </c>
       <c r="O5">
-        <v>14.41985164403543</v>
+        <v>20.83373201904863</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.569875717581014</v>
+        <v>7.660962983182275</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.915008550658114</v>
+        <v>4.418118176399584</v>
       </c>
       <c r="E6">
-        <v>11.90914652900878</v>
+        <v>12.25805189023635</v>
       </c>
       <c r="F6">
-        <v>17.89304838547707</v>
+        <v>23.26800999152356</v>
       </c>
       <c r="G6">
-        <v>2.078286470830979</v>
+        <v>3.623090645381522</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.44522585906228</v>
+        <v>9.099694736323261</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.22162892920385</v>
+        <v>13.10747901113649</v>
       </c>
       <c r="N6">
-        <v>12.51246997810709</v>
+        <v>18.557670570993</v>
       </c>
       <c r="O6">
-        <v>14.41027164853638</v>
+        <v>20.83546861469725</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.678616877870246</v>
+        <v>7.680577037225672</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.95261499575837</v>
+        <v>4.431122706613849</v>
       </c>
       <c r="E7">
-        <v>12.1275853023185</v>
+        <v>12.29808026710126</v>
       </c>
       <c r="F7">
-        <v>18.06974610831888</v>
+        <v>23.27499226188082</v>
       </c>
       <c r="G7">
-        <v>2.076717773265554</v>
+        <v>3.622473891051497</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.7078414141693</v>
+        <v>9.228466548936028</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.54740104263718</v>
+        <v>13.17400318427787</v>
       </c>
       <c r="N7">
-        <v>12.44993315787297</v>
+        <v>18.53814140764146</v>
       </c>
       <c r="O7">
-        <v>14.47783933943927</v>
+        <v>20.82388273622487</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.144790144591158</v>
+        <v>7.77057826646847</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.113264639028942</v>
+        <v>4.487146304202549</v>
       </c>
       <c r="E8">
-        <v>13.07409044669289</v>
+        <v>12.48303926363864</v>
       </c>
       <c r="F8">
-        <v>18.86749448023845</v>
+        <v>23.32106521437436</v>
       </c>
       <c r="G8">
-        <v>2.070014561594538</v>
+        <v>3.619894513522195</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.80991184135981</v>
+        <v>9.771773956822036</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.91035790864459</v>
+        <v>13.47060773790357</v>
       </c>
       <c r="N8">
-        <v>12.18051186677411</v>
+        <v>18.45600825226729</v>
       </c>
       <c r="O8">
-        <v>14.80270728096801</v>
+        <v>20.78435896273734</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.002204079790195</v>
+        <v>7.95814785245336</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.407543248751567</v>
+        <v>4.591798527143538</v>
       </c>
       <c r="E9">
-        <v>14.85542891316687</v>
+        <v>12.87269275108407</v>
       </c>
       <c r="F9">
-        <v>20.48411150942812</v>
+        <v>23.4658344615291</v>
       </c>
       <c r="G9">
-        <v>2.057613235716543</v>
+        <v>3.615344051486098</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.76306418272769</v>
+        <v>10.74235347512884</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.31715029347794</v>
+        <v>14.05802068658871</v>
       </c>
       <c r="N9">
-        <v>11.67406891133752</v>
+        <v>18.30938873098125</v>
       </c>
       <c r="O9">
-        <v>15.53669556286598</v>
+        <v>20.74872061237275</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.644101304047439</v>
+        <v>8.101479118919164</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.609810276764563</v>
+        <v>4.665242299752196</v>
       </c>
       <c r="E10">
-        <v>16.19707761711567</v>
+        <v>13.17258628549963</v>
       </c>
       <c r="F10">
-        <v>21.69375144336306</v>
+        <v>23.60482762707103</v>
       </c>
       <c r="G10">
-        <v>2.048910746655243</v>
+        <v>3.612307025150626</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.06961806092753</v>
+        <v>11.39399127268876</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.92649989689384</v>
+        <v>14.48858365965502</v>
       </c>
       <c r="N10">
-        <v>11.31369370976919</v>
+        <v>18.21038155990865</v>
       </c>
       <c r="O10">
-        <v>16.13525082644536</v>
+        <v>20.74817075458794</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.954249880649098</v>
+        <v>8.16761535891194</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.698576315300914</v>
+        <v>4.697851208964387</v>
       </c>
       <c r="E11">
-        <v>16.83854361753123</v>
+        <v>13.31135238677304</v>
       </c>
       <c r="F11">
-        <v>22.2470863383398</v>
+        <v>23.6749900705512</v>
       </c>
       <c r="G11">
-        <v>2.045029929286961</v>
+        <v>3.610991188610317</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.6360892735335</v>
+        <v>11.67651773339391</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.62503257453033</v>
+        <v>14.68331981083919</v>
       </c>
       <c r="N11">
-        <v>11.15190659025173</v>
+        <v>18.16721348015057</v>
       </c>
       <c r="O11">
-        <v>16.42037783609046</v>
+        <v>20.75349763505927</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.069245980359247</v>
+        <v>8.192771096145673</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.731707126336655</v>
+        <v>4.710079684650294</v>
       </c>
       <c r="E12">
-        <v>17.07799290445497</v>
+        <v>13.36418409639056</v>
       </c>
       <c r="F12">
-        <v>22.45694657361436</v>
+        <v>23.70253993639062</v>
       </c>
       <c r="G12">
-        <v>2.043570641203711</v>
+        <v>3.610502312991732</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>18.84659988411589</v>
+        <v>11.78146522863109</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.88480714764342</v>
+        <v>14.75682606482599</v>
       </c>
       <c r="N12">
-        <v>11.09091739541401</v>
+        <v>18.15113443556923</v>
       </c>
       <c r="O12">
-        <v>16.53018741638266</v>
+        <v>20.75631650533369</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.044588061365777</v>
+        <v>8.187348769013406</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.724593528447521</v>
+        <v>4.70745146438863</v>
       </c>
       <c r="E13">
-        <v>17.02657531844919</v>
+        <v>13.35279405135633</v>
       </c>
       <c r="F13">
-        <v>22.41173657646145</v>
+        <v>23.69656323146821</v>
       </c>
       <c r="G13">
-        <v>2.043884482605752</v>
+        <v>3.610607183651323</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.80144026713519</v>
+        <v>11.75895415552898</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.82906964784665</v>
+        <v>14.74100681714878</v>
       </c>
       <c r="N13">
-        <v>11.10404077976109</v>
+        <v>18.15458545604627</v>
       </c>
       <c r="O13">
-        <v>16.50645631827616</v>
+        <v>20.7556737669898</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.963759633042686</v>
+        <v>8.169682835545068</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.701311771491253</v>
+        <v>4.698859680200016</v>
       </c>
       <c r="E14">
-        <v>16.85831196089527</v>
+        <v>13.31569349380141</v>
       </c>
       <c r="F14">
-        <v>22.26434574308441</v>
+        <v>23.67723705535138</v>
       </c>
       <c r="G14">
-        <v>2.04490967200526</v>
+        <v>3.610950780338217</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.65348817107993</v>
+        <v>11.68519289627184</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.64649896753408</v>
+        <v>14.68937235695859</v>
       </c>
       <c r="N14">
-        <v>11.14688363620039</v>
+        <v>18.16588528804792</v>
       </c>
       <c r="O14">
-        <v>16.42937513817936</v>
+        <v>20.75371348196876</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.913931576800239</v>
+        <v>8.158875766063133</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.686987683327001</v>
+        <v>4.69358122652991</v>
       </c>
       <c r="E15">
-        <v>16.75479848366273</v>
+        <v>13.29300374937963</v>
       </c>
       <c r="F15">
-        <v>22.17410381449896</v>
+        <v>23.66552644277265</v>
       </c>
       <c r="G15">
-        <v>2.045538942102954</v>
+        <v>3.611162466387129</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.56234284866709</v>
+        <v>11.63974538443769</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.53405387783787</v>
+        <v>14.65771187996195</v>
       </c>
       <c r="N15">
-        <v>11.17316106014509</v>
+        <v>18.17284159628364</v>
       </c>
       <c r="O15">
-        <v>16.38239985438454</v>
+        <v>20.75261713579518</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.623487983564493</v>
+        <v>8.097173794359952</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.603942455789416</v>
+        <v>4.66309471378517</v>
       </c>
       <c r="E16">
-        <v>16.15466624442495</v>
+        <v>13.1635602137216</v>
       </c>
       <c r="F16">
-        <v>21.65764085454848</v>
+        <v>23.600380526569</v>
       </c>
       <c r="G16">
-        <v>2.049165859269539</v>
+        <v>3.61239433657784</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.03203731358781</v>
+        <v>11.37524414342158</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.88018049881397</v>
+        <v>14.47582809608918</v>
       </c>
       <c r="N16">
-        <v>11.32430735656774</v>
+        <v>18.21324023354732</v>
       </c>
       <c r="O16">
-        <v>16.11687475594463</v>
+        <v>20.74793484627826</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.440916747554388</v>
+        <v>8.059544547599041</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.552153292950319</v>
+        <v>4.644183730705555</v>
       </c>
       <c r="E17">
-        <v>15.78022816371305</v>
+        <v>13.08471320335129</v>
       </c>
       <c r="F17">
-        <v>21.34150174300426</v>
+        <v>23.56218054997474</v>
       </c>
       <c r="G17">
-        <v>2.051410195275796</v>
+        <v>3.613166848014634</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.6995733916674</v>
+        <v>11.2093891347043</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.47050839475192</v>
+        <v>14.363905608093</v>
       </c>
       <c r="N17">
-        <v>11.41755839996793</v>
+        <v>18.23850175022244</v>
       </c>
       <c r="O17">
-        <v>15.95726634348285</v>
+        <v>20.74649083952683</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.336340805649099</v>
+        <v>8.037990499217038</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.52206081191385</v>
+        <v>4.633231504784063</v>
       </c>
       <c r="E18">
-        <v>15.5635573739169</v>
+        <v>13.03958619545557</v>
       </c>
       <c r="F18">
-        <v>21.15996070038867</v>
+        <v>23.54086265358126</v>
       </c>
       <c r="G18">
-        <v>2.052708477594991</v>
+        <v>3.613617365046457</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.50572274497272</v>
+        <v>11.11268663026921</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.23171067945826</v>
+        <v>14.29942869144196</v>
       </c>
       <c r="N18">
-        <v>11.47139834023395</v>
+        <v>18.25320766664291</v>
       </c>
       <c r="O18">
-        <v>15.86667299702171</v>
+        <v>20.74618527837068</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.306455712813404</v>
+        <v>8.030708705879301</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.511820204888316</v>
+        <v>4.62951050892039</v>
       </c>
       <c r="E19">
-        <v>15.49990219011896</v>
+        <v>13.02434700309589</v>
       </c>
       <c r="F19">
-        <v>21.09854843014438</v>
+        <v>23.53375752210704</v>
       </c>
       <c r="G19">
-        <v>2.053149351574013</v>
+        <v>3.61377096677656</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.43963706315965</v>
+        <v>11.07972164107708</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.15031189655893</v>
+        <v>14.27758268598993</v>
       </c>
       <c r="N19">
-        <v>11.48966369712212</v>
+        <v>18.25821713111106</v>
       </c>
       <c r="O19">
-        <v>15.83620760147128</v>
+        <v>20.74617198607004</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.460519569729135</v>
+        <v>8.063541169440212</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.55769799920796</v>
+        <v>4.646204646575821</v>
       </c>
       <c r="E20">
-        <v>15.82032907454052</v>
+        <v>13.0930838333959</v>
       </c>
       <c r="F20">
-        <v>21.3751258034274</v>
+        <v>23.56617945692691</v>
       </c>
       <c r="G20">
-        <v>2.051170522509262</v>
+        <v>3.613083972672654</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.73523650466342</v>
+        <v>11.22718026889713</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.5144457031951</v>
+        <v>14.37583105553766</v>
       </c>
       <c r="N20">
-        <v>11.4076107442198</v>
+        <v>18.23579439577966</v>
       </c>
       <c r="O20">
-        <v>15.97413185027503</v>
+        <v>20.7465902214816</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.987567188345922</v>
+        <v>8.174868908172977</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.708163413762563</v>
+        <v>4.701386583279818</v>
       </c>
       <c r="E21">
-        <v>16.90782800452346</v>
+        <v>13.32658353976165</v>
       </c>
       <c r="F21">
-        <v>22.30763000386343</v>
+        <v>23.68288713877796</v>
       </c>
       <c r="G21">
-        <v>2.044608277350988</v>
+        <v>3.610849602841613</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.69705370362212</v>
+        <v>11.70691398858341</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.70025246438633</v>
+        <v>14.70454562844496</v>
       </c>
       <c r="N21">
-        <v>11.13429243180559</v>
+        <v>18.1625589961284</v>
       </c>
       <c r="O21">
-        <v>16.45196591956768</v>
+        <v>20.75426751288204</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.317753214050732</v>
+        <v>8.248266654198282</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.803680134416175</v>
+        <v>4.736750773826136</v>
       </c>
       <c r="E22">
-        <v>17.59846185065498</v>
+        <v>13.48082017301282</v>
       </c>
       <c r="F22">
-        <v>22.91892989816864</v>
+        <v>23.76487091451761</v>
       </c>
       <c r="G22">
-        <v>2.040378990215488</v>
+        <v>3.60944409974167</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.30235557342311</v>
+        <v>12.00854827687281</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.44763561994524</v>
+        <v>14.91797162589663</v>
       </c>
       <c r="N22">
-        <v>10.95725540538249</v>
+        <v>18.11625563050745</v>
       </c>
       <c r="O22">
-        <v>16.77497033299063</v>
+        <v>20.76395736461268</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.142823374237913</v>
+        <v>8.209042017116612</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.752964003442208</v>
+        <v>4.717941818030478</v>
       </c>
       <c r="E23">
-        <v>17.23166008452214</v>
+        <v>13.39836933544101</v>
       </c>
       <c r="F23">
-        <v>22.59252980546943</v>
+        <v>23.72059808771222</v>
       </c>
       <c r="G23">
-        <v>2.042631116714164</v>
+        <v>3.61018924584494</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>18.98142045202588</v>
+        <v>11.84866050115439</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.05123977721572</v>
+        <v>14.80421447525617</v>
       </c>
       <c r="N23">
-        <v>11.05160917676982</v>
+        <v>18.14082625781317</v>
       </c>
       <c r="O23">
-        <v>16.60159880104276</v>
+        <v>20.75835845631118</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.451662339751188</v>
+        <v>8.061734047310685</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.555192227387278</v>
+        <v>4.645291239488554</v>
       </c>
       <c r="E24">
-        <v>15.80220704783831</v>
+        <v>13.08929883462101</v>
       </c>
       <c r="F24">
-        <v>21.35992369766678</v>
+        <v>23.56436954452618</v>
       </c>
       <c r="G24">
-        <v>2.051278853630633</v>
+        <v>3.613121420706342</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.71912166141869</v>
+        <v>11.21914109986721</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.49459184299837</v>
+        <v>14.37043996370634</v>
       </c>
       <c r="N24">
-        <v>11.4121073646479</v>
+        <v>18.23701782140357</v>
       </c>
       <c r="O24">
-        <v>15.96650331698389</v>
+        <v>20.74654365670009</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.776915179000962</v>
+        <v>7.906344746016217</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.330297369624358</v>
+        <v>4.564073165145445</v>
       </c>
       <c r="E25">
-        <v>14.38239390829381</v>
+        <v>12.76468169466614</v>
       </c>
       <c r="F25">
-        <v>20.04227065846145</v>
+        <v>23.42089332170319</v>
       </c>
       <c r="G25">
-        <v>2.060892946641522</v>
+        <v>3.616521063184012</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.2571828816884</v>
+        <v>10.49035258770289</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.69423052864794</v>
+        <v>13.89896664708248</v>
       </c>
       <c r="N25">
-        <v>11.80889499807486</v>
+        <v>18.34751637589879</v>
       </c>
       <c r="O25">
-        <v>15.32771125788334</v>
+        <v>20.75386572189163</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_21/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.795758356961096</v>
+        <v>7.267487466568283</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.501983508384387</v>
+        <v>4.155441632868411</v>
       </c>
       <c r="E2">
-        <v>12.53507889104725</v>
+        <v>13.32583420771772</v>
       </c>
       <c r="F2">
-        <v>23.33724731771041</v>
+        <v>19.08758342319637</v>
       </c>
       <c r="G2">
-        <v>3.619230112743357</v>
+        <v>2.068250213579423</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.912723146394059</v>
+        <v>15.09454073237502</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.55153538810813</v>
+        <v>16.26155769659778</v>
       </c>
       <c r="N2">
-        <v>18.43473513515739</v>
+        <v>12.10905127776023</v>
       </c>
       <c r="O2">
-        <v>20.77647784399818</v>
+        <v>14.89726612773359</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.723603566338228</v>
+        <v>6.907481900436248</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.458564282370052</v>
+        <v>4.031580837539224</v>
       </c>
       <c r="E3">
-        <v>12.38627156865967</v>
+        <v>12.59026577446132</v>
       </c>
       <c r="F3">
-        <v>23.29445716053176</v>
+        <v>18.4535221760148</v>
       </c>
       <c r="G3">
-        <v>3.621195632881195</v>
+        <v>2.073424805416297</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.496848281443539</v>
+        <v>14.25332730631167</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.31738852825255</v>
+        <v>15.22274205634127</v>
       </c>
       <c r="N3">
-        <v>18.49753026609397</v>
+        <v>12.31800692942454</v>
       </c>
       <c r="O3">
-        <v>20.80250768729889</v>
+        <v>14.63036723519382</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.680808492176975</v>
+        <v>6.679882228967542</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.431274144845615</v>
+        <v>3.953052227311232</v>
       </c>
       <c r="E4">
-        <v>12.29855333332908</v>
+        <v>12.13013250444181</v>
       </c>
       <c r="F4">
-        <v>23.27508232687383</v>
+        <v>18.0718241655704</v>
       </c>
       <c r="G4">
-        <v>3.622466752269673</v>
+        <v>2.076699539466088</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.229959984299446</v>
+        <v>13.71088352059219</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.17478351248557</v>
+        <v>14.55117209307281</v>
       </c>
       <c r="N4">
-        <v>18.53791511055742</v>
+        <v>12.44920505279314</v>
       </c>
       <c r="O4">
-        <v>20.82375350563835</v>
+        <v>14.47864449530027</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.663767917852403</v>
+        <v>6.585615982950019</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.419999469347108</v>
+        <v>3.920456169221871</v>
       </c>
       <c r="E5">
-        <v>12.26376859896418</v>
+        <v>11.94070864061928</v>
       </c>
       <c r="F5">
-        <v>23.26892688972621</v>
+        <v>17.9183921785564</v>
       </c>
       <c r="G5">
-        <v>3.62300095971539</v>
+        <v>2.078059168705471</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.118388169401504</v>
+        <v>13.48338791412094</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.11704217195276</v>
+        <v>14.26899774735868</v>
       </c>
       <c r="N5">
-        <v>18.55483340782999</v>
+        <v>12.50342133138938</v>
       </c>
       <c r="O5">
-        <v>20.83373201904863</v>
+        <v>14.41985164403531</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.660962983182275</v>
+        <v>6.569875717580993</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.418118176399584</v>
+        <v>3.915008550657956</v>
       </c>
       <c r="E6">
-        <v>12.25805189023635</v>
+        <v>11.9091465290088</v>
       </c>
       <c r="F6">
-        <v>23.26800999152356</v>
+        <v>17.89304838547694</v>
       </c>
       <c r="G6">
-        <v>3.623090645381522</v>
+        <v>2.078286470830979</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.099694736323261</v>
+        <v>13.44522585906231</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.10747901113649</v>
+        <v>14.22162892920388</v>
       </c>
       <c r="N6">
-        <v>18.557670570993</v>
+        <v>12.51246997810699</v>
       </c>
       <c r="O6">
-        <v>20.83546861469725</v>
+        <v>14.41027164853622</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.680577037225672</v>
+        <v>6.678616877870196</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.431122706613849</v>
+        <v>3.952614995758218</v>
       </c>
       <c r="E7">
-        <v>12.29808026710126</v>
+        <v>12.12758530231853</v>
       </c>
       <c r="F7">
-        <v>23.27499226188082</v>
+        <v>18.06974610831876</v>
       </c>
       <c r="G7">
-        <v>3.622473891051497</v>
+        <v>2.076717773265553</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.228466548936028</v>
+        <v>13.70784141416938</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.17400318427787</v>
+        <v>14.5474010426372</v>
       </c>
       <c r="N7">
-        <v>18.53814140764146</v>
+        <v>12.4499331578729</v>
       </c>
       <c r="O7">
-        <v>20.82388273622487</v>
+        <v>14.47783933943913</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.77057826646847</v>
+        <v>7.144790144591133</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.487146304202549</v>
+        <v>4.113264639029055</v>
       </c>
       <c r="E8">
-        <v>12.48303926363864</v>
+        <v>13.07409044669289</v>
       </c>
       <c r="F8">
-        <v>23.32106521437436</v>
+        <v>18.86749448023832</v>
       </c>
       <c r="G8">
-        <v>3.619894513522195</v>
+        <v>2.07001456159454</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.771773956822036</v>
+        <v>14.80991184135992</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.47060773790357</v>
+        <v>15.91035790864464</v>
       </c>
       <c r="N8">
-        <v>18.45600825226729</v>
+        <v>12.18051186677408</v>
       </c>
       <c r="O8">
-        <v>20.78435896273734</v>
+        <v>14.80270728096787</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.95814785245336</v>
+        <v>8.002204079790175</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.591798527143538</v>
+        <v>4.40754324875172</v>
       </c>
       <c r="E9">
-        <v>12.87269275108407</v>
+        <v>14.85542891316689</v>
       </c>
       <c r="F9">
-        <v>23.4658344615291</v>
+        <v>20.48411150942793</v>
       </c>
       <c r="G9">
-        <v>3.615344051486098</v>
+        <v>2.057613235716543</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.74235347512884</v>
+        <v>16.76306418272775</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.05802068658871</v>
+        <v>18.31715029347802</v>
       </c>
       <c r="N9">
-        <v>18.30938873098125</v>
+        <v>11.67406891133746</v>
       </c>
       <c r="O9">
-        <v>20.74872061237275</v>
+        <v>15.53669556286584</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.101479118919164</v>
+        <v>8.644101304047439</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.665242299752196</v>
+        <v>4.609810276764652</v>
       </c>
       <c r="E10">
-        <v>13.17258628549963</v>
+        <v>16.19707761711566</v>
       </c>
       <c r="F10">
-        <v>23.60482762707103</v>
+        <v>21.69375144336296</v>
       </c>
       <c r="G10">
-        <v>3.612307025150626</v>
+        <v>2.048910746655376</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.39399127268876</v>
+        <v>18.06961806092758</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.48858365965502</v>
+        <v>19.92649989689387</v>
       </c>
       <c r="N10">
-        <v>18.21038155990865</v>
+        <v>11.31369370976915</v>
       </c>
       <c r="O10">
-        <v>20.74817075458794</v>
+        <v>16.13525082644527</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.16761535891194</v>
+        <v>8.954249880649076</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.697851208964387</v>
+        <v>4.698576315300815</v>
       </c>
       <c r="E11">
-        <v>13.31135238677304</v>
+        <v>16.83854361753119</v>
       </c>
       <c r="F11">
-        <v>23.6749900705512</v>
+        <v>22.24708633833979</v>
       </c>
       <c r="G11">
-        <v>3.610991188610317</v>
+        <v>2.045029929287093</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.67651773339391</v>
+        <v>18.63608927353352</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.68331981083919</v>
+        <v>20.62503257453031</v>
       </c>
       <c r="N11">
-        <v>18.16721348015057</v>
+        <v>11.15190659025173</v>
       </c>
       <c r="O11">
-        <v>20.75349763505927</v>
+        <v>16.42037783609043</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.192771096145673</v>
+        <v>9.069245980359144</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.710079684650294</v>
+        <v>4.731707126336571</v>
       </c>
       <c r="E12">
-        <v>13.36418409639056</v>
+        <v>17.07799290445498</v>
       </c>
       <c r="F12">
-        <v>23.70253993639062</v>
+        <v>22.45694657361437</v>
       </c>
       <c r="G12">
-        <v>3.610502312991732</v>
+        <v>2.043570641203712</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.78146522863109</v>
+        <v>18.84659988411588</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.75682606482599</v>
+        <v>20.88480714764342</v>
       </c>
       <c r="N12">
-        <v>18.15113443556923</v>
+        <v>11.09091739541397</v>
       </c>
       <c r="O12">
-        <v>20.75631650533369</v>
+        <v>16.53018741638263</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.187348769013406</v>
+        <v>9.044588061365793</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.70745146438863</v>
+        <v>4.724593528447462</v>
       </c>
       <c r="E13">
-        <v>13.35279405135633</v>
+        <v>17.02657531844915</v>
       </c>
       <c r="F13">
-        <v>23.69656323146821</v>
+        <v>22.41173657646149</v>
       </c>
       <c r="G13">
-        <v>3.610607183651323</v>
+        <v>2.043884482605616</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.75895415552898</v>
+        <v>18.80144026713526</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.74100681714878</v>
+        <v>20.82906964784668</v>
       </c>
       <c r="N13">
-        <v>18.15458545604627</v>
+        <v>11.10404077976109</v>
       </c>
       <c r="O13">
-        <v>20.7556737669898</v>
+        <v>16.50645631827618</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.169682835545068</v>
+        <v>8.963759633042697</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.698859680200016</v>
+        <v>4.701311771491306</v>
       </c>
       <c r="E14">
-        <v>13.31569349380141</v>
+        <v>16.85831196089527</v>
       </c>
       <c r="F14">
-        <v>23.67723705535138</v>
+        <v>22.26434574308436</v>
       </c>
       <c r="G14">
-        <v>3.610950780338217</v>
+        <v>2.044909672005127</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.68519289627184</v>
+        <v>18.65348817108008</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.68937235695859</v>
+        <v>20.64649896753417</v>
       </c>
       <c r="N14">
-        <v>18.16588528804792</v>
+        <v>11.14688363620039</v>
       </c>
       <c r="O14">
-        <v>20.75371348196876</v>
+        <v>16.42937513817926</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.158875766063133</v>
+        <v>8.913931576800275</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.69358122652991</v>
+        <v>4.686987683326974</v>
       </c>
       <c r="E15">
-        <v>13.29300374937963</v>
+        <v>16.75479848366275</v>
       </c>
       <c r="F15">
-        <v>23.66552644277265</v>
+        <v>22.17410381449893</v>
       </c>
       <c r="G15">
-        <v>3.611162466387129</v>
+        <v>2.045538942102823</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.63974538443769</v>
+        <v>18.56234284866714</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.65771187996195</v>
+        <v>20.53405387783792</v>
       </c>
       <c r="N15">
-        <v>18.17284159628364</v>
+        <v>11.17316106014509</v>
       </c>
       <c r="O15">
-        <v>20.75261713579518</v>
+        <v>16.38239985438448</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.097173794359952</v>
+        <v>8.623487983564409</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.66309471378517</v>
+        <v>4.603942455789559</v>
       </c>
       <c r="E16">
-        <v>13.1635602137216</v>
+        <v>16.15466624442493</v>
       </c>
       <c r="F16">
-        <v>23.600380526569</v>
+        <v>21.6576408545484</v>
       </c>
       <c r="G16">
-        <v>3.61239433657784</v>
+        <v>2.049165859269406</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.37524414342158</v>
+        <v>18.03203731358789</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.47582809608918</v>
+        <v>19.88018049881398</v>
       </c>
       <c r="N16">
-        <v>18.21324023354732</v>
+        <v>11.32430735656774</v>
       </c>
       <c r="O16">
-        <v>20.74793484627826</v>
+        <v>16.11687475594457</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.059544547599041</v>
+        <v>8.440916747554402</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.644183730705555</v>
+        <v>4.552153292950374</v>
       </c>
       <c r="E17">
-        <v>13.08471320335129</v>
+        <v>15.78022816371308</v>
       </c>
       <c r="F17">
-        <v>23.56218054997474</v>
+        <v>21.34150174300418</v>
       </c>
       <c r="G17">
-        <v>3.613166848014634</v>
+        <v>2.05141019527553</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.2093891347043</v>
+        <v>17.6995733916674</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.363905608093</v>
+        <v>19.47050839475193</v>
       </c>
       <c r="N17">
-        <v>18.23850175022244</v>
+        <v>11.41755839996794</v>
       </c>
       <c r="O17">
-        <v>20.74649083952683</v>
+        <v>15.95726634348279</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.037990499217038</v>
+        <v>8.336340805649108</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.633231504784063</v>
+        <v>4.522060811913868</v>
       </c>
       <c r="E18">
-        <v>13.03958619545557</v>
+        <v>15.56355737391691</v>
       </c>
       <c r="F18">
-        <v>23.54086265358126</v>
+        <v>21.15996070038865</v>
       </c>
       <c r="G18">
-        <v>3.613617365046457</v>
+        <v>2.05270847759499</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.11268663026921</v>
+        <v>17.50572274497274</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.29942869144196</v>
+        <v>19.23171067945826</v>
       </c>
       <c r="N18">
-        <v>18.25320766664291</v>
+        <v>11.47139834023392</v>
       </c>
       <c r="O18">
-        <v>20.74618527837068</v>
+        <v>15.86667299702165</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.030708705879301</v>
+        <v>8.306455712813419</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.62951050892039</v>
+        <v>4.511820204888537</v>
       </c>
       <c r="E19">
-        <v>13.02434700309589</v>
+        <v>15.49990219011897</v>
       </c>
       <c r="F19">
-        <v>23.53375752210704</v>
+        <v>21.09854843014434</v>
       </c>
       <c r="G19">
-        <v>3.61377096677656</v>
+        <v>2.053149351573747</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.07972164107708</v>
+        <v>17.43963706315962</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.27758268598993</v>
+        <v>19.15031189655893</v>
       </c>
       <c r="N19">
-        <v>18.25821713111106</v>
+        <v>11.48966369712212</v>
       </c>
       <c r="O19">
-        <v>20.74617198607004</v>
+        <v>15.83620760147129</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.063541169440212</v>
+        <v>8.460519569729188</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.646204646575821</v>
+        <v>4.557697999207901</v>
       </c>
       <c r="E20">
-        <v>13.0930838333959</v>
+        <v>15.82032907454055</v>
       </c>
       <c r="F20">
-        <v>23.56617945692691</v>
+        <v>21.37512580342731</v>
       </c>
       <c r="G20">
-        <v>3.613083972672654</v>
+        <v>2.051170522508993</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.22718026889713</v>
+        <v>17.73523650466348</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.37583105553766</v>
+        <v>19.51444570319513</v>
       </c>
       <c r="N20">
-        <v>18.23579439577966</v>
+        <v>11.40761074421977</v>
       </c>
       <c r="O20">
-        <v>20.7465902214816</v>
+        <v>15.97413185027496</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.174868908172977</v>
+        <v>8.987567188345897</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.701386583279818</v>
+        <v>4.708163413762521</v>
       </c>
       <c r="E21">
-        <v>13.32658353976165</v>
+        <v>16.90782800452346</v>
       </c>
       <c r="F21">
-        <v>23.68288713877796</v>
+        <v>22.30763000386341</v>
       </c>
       <c r="G21">
-        <v>3.610849602841613</v>
+        <v>2.044608277351123</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.70691398858341</v>
+        <v>18.69705370362217</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.70454562844496</v>
+        <v>20.70025246438636</v>
       </c>
       <c r="N21">
-        <v>18.1625589961284</v>
+        <v>11.13429243180549</v>
       </c>
       <c r="O21">
-        <v>20.75426751288204</v>
+        <v>16.45196591956762</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.248266654198282</v>
+        <v>9.317753214050734</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.736750773826136</v>
+        <v>4.80368013441606</v>
       </c>
       <c r="E22">
-        <v>13.48082017301282</v>
+        <v>17.598461850655</v>
       </c>
       <c r="F22">
-        <v>23.76487091451761</v>
+        <v>22.91892989816867</v>
       </c>
       <c r="G22">
-        <v>3.60944409974167</v>
+        <v>2.040378990215221</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.00854827687281</v>
+        <v>19.3023555734231</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.91797162589663</v>
+        <v>21.44763561994523</v>
       </c>
       <c r="N22">
-        <v>18.11625563050745</v>
+        <v>10.95725540538245</v>
       </c>
       <c r="O22">
-        <v>20.76395736461268</v>
+        <v>16.77497033299064</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.209042017116612</v>
+        <v>9.142823374237985</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.717941818030478</v>
+        <v>4.752964003442267</v>
       </c>
       <c r="E23">
-        <v>13.39836933544101</v>
+        <v>17.23166008452216</v>
       </c>
       <c r="F23">
-        <v>23.72059808771222</v>
+        <v>22.59252980546945</v>
       </c>
       <c r="G23">
-        <v>3.61018924584494</v>
+        <v>2.042631116714299</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.84866050115439</v>
+        <v>18.98142045202586</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.80421447525617</v>
+        <v>21.05123977721574</v>
       </c>
       <c r="N23">
-        <v>18.14082625781317</v>
+        <v>11.05160917676982</v>
       </c>
       <c r="O23">
-        <v>20.75835845631118</v>
+        <v>16.60159880104277</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.061734047310685</v>
+        <v>8.451662339751206</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.645291239488554</v>
+        <v>4.555192227387331</v>
       </c>
       <c r="E24">
-        <v>13.08929883462101</v>
+        <v>15.8022070478383</v>
       </c>
       <c r="F24">
-        <v>23.56436954452618</v>
+        <v>21.35992369766671</v>
       </c>
       <c r="G24">
-        <v>3.613121420706342</v>
+        <v>2.051278853630366</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.21914109986721</v>
+        <v>17.71912166141876</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.37043996370634</v>
+        <v>19.4945918429984</v>
       </c>
       <c r="N24">
-        <v>18.23701782140357</v>
+        <v>11.4121073646479</v>
       </c>
       <c r="O24">
-        <v>20.74654365670009</v>
+        <v>15.96650331698379</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.906344746016217</v>
+        <v>7.776915179000937</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.564073165145445</v>
+        <v>4.330297369624375</v>
       </c>
       <c r="E25">
-        <v>12.76468169466614</v>
+        <v>14.38239390829382</v>
       </c>
       <c r="F25">
-        <v>23.42089332170319</v>
+        <v>20.04227065846137</v>
       </c>
       <c r="G25">
-        <v>3.616521063184012</v>
+        <v>2.060892946641387</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.49035258770289</v>
+        <v>16.25718288168849</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.89896664708248</v>
+        <v>17.69423052864797</v>
       </c>
       <c r="N25">
-        <v>18.34751637589879</v>
+        <v>11.80889499807486</v>
       </c>
       <c r="O25">
-        <v>20.75386572189163</v>
+        <v>15.32771125788325</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.267487466568283</v>
+        <v>10.07110706553414</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.155441632868411</v>
+        <v>8.109342739526385</v>
       </c>
       <c r="E2">
-        <v>13.32583420771772</v>
+        <v>13.37374519381084</v>
       </c>
       <c r="F2">
-        <v>19.08758342319637</v>
+        <v>28.26672993221657</v>
       </c>
       <c r="G2">
-        <v>2.068250213579423</v>
+        <v>35.38732958941296</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.433895891336283</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.396233145278608</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.34735823756303</v>
       </c>
       <c r="K2">
-        <v>15.09454073237502</v>
+        <v>17.48601896642178</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.223014651705206</v>
       </c>
       <c r="M2">
-        <v>16.26155769659778</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.10905127776023</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>14.89726612773359</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>18.02349849634124</v>
+      </c>
+      <c r="Q2">
+        <v>19.23898366166556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.907481900436248</v>
+        <v>9.469452693691748</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.031580837539224</v>
+        <v>7.883390285651528</v>
       </c>
       <c r="E3">
-        <v>12.59026577446132</v>
+        <v>12.8817855190101</v>
       </c>
       <c r="F3">
-        <v>18.4535221760148</v>
+        <v>26.85028448042639</v>
       </c>
       <c r="G3">
-        <v>2.073424805416297</v>
+        <v>33.24182717978669</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.168886931167298</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.449856778822072</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.992843362994034</v>
       </c>
       <c r="K3">
-        <v>14.25332730631167</v>
+        <v>17.06054510568841</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.991494361741315</v>
       </c>
       <c r="M3">
-        <v>15.22274205634127</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.31800692942454</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>14.63036723519382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>17.39752452283047</v>
+      </c>
+      <c r="Q3">
+        <v>18.31458698640347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.679882228967542</v>
+        <v>9.074400525888803</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.953052227311232</v>
+        <v>7.741811596232563</v>
       </c>
       <c r="E4">
-        <v>12.13013250444181</v>
+        <v>12.56964211876899</v>
       </c>
       <c r="F4">
-        <v>18.0718241655704</v>
+        <v>25.95136037904216</v>
       </c>
       <c r="G4">
-        <v>2.076699539466088</v>
+        <v>31.86560538638516</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.000396048147611</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.484513120417371</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.772546403405437</v>
       </c>
       <c r="K4">
-        <v>13.71088352059219</v>
+        <v>16.80412706202267</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.845153557692583</v>
       </c>
       <c r="M4">
-        <v>14.55117209307281</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>12.44920505279314</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>14.47864449530027</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>17.00656483005288</v>
+      </c>
+      <c r="Q4">
+        <v>17.73037110786534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.585615982950019</v>
+        <v>8.895136084129989</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.920456169221871</v>
+        <v>7.683450572109271</v>
       </c>
       <c r="E5">
-        <v>11.94070864061928</v>
+        <v>12.43999792932024</v>
       </c>
       <c r="F5">
-        <v>17.9183921785564</v>
+        <v>25.5780835624214</v>
       </c>
       <c r="G5">
-        <v>2.078059168705471</v>
+        <v>31.29031105318716</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.930255772198446</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.501824924584613</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.682227953079343</v>
       </c>
       <c r="K5">
-        <v>13.48338791412094</v>
+        <v>16.71490464977862</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.784498426319816</v>
       </c>
       <c r="M5">
-        <v>14.26899774735868</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>12.50342133138938</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>14.41985164403531</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>16.8538687351908</v>
+      </c>
+      <c r="Q5">
+        <v>17.48839383571109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.569875717580993</v>
+        <v>8.850450537233764</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.915008550657956</v>
+        <v>7.673720998381187</v>
       </c>
       <c r="E6">
-        <v>11.9091465290088</v>
+        <v>12.41832595121965</v>
       </c>
       <c r="F6">
-        <v>17.89304838547694</v>
+        <v>25.51569376411027</v>
       </c>
       <c r="G6">
-        <v>2.078286470830979</v>
+        <v>31.1939212865417</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.918518945771825</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.508246698280173</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.667201212890259</v>
       </c>
       <c r="K6">
-        <v>13.44522585906231</v>
+        <v>16.71724178558907</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.774366101008368</v>
       </c>
       <c r="M6">
-        <v>14.22162892920388</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>12.51246997810699</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>14.41027164853622</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>16.83830809474137</v>
+      </c>
+      <c r="Q6">
+        <v>17.44798688784676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.678616877870196</v>
+        <v>9.033205367801379</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.952614995758218</v>
+        <v>7.741027151216068</v>
       </c>
       <c r="E7">
-        <v>12.12758530231853</v>
+        <v>12.56790345499694</v>
       </c>
       <c r="F7">
-        <v>18.06974610831876</v>
+        <v>25.94635384316612</v>
       </c>
       <c r="G7">
-        <v>2.076717773265553</v>
+        <v>31.85790485908571</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.999456134613377</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.493999862907932</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.77133038854733</v>
       </c>
       <c r="K7">
-        <v>13.70784141416938</v>
+        <v>16.84935607878398</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.844339625908073</v>
       </c>
       <c r="M7">
-        <v>14.5474010426372</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>12.4499331578729</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>14.47783933943913</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>17.03128100020919</v>
+      </c>
+      <c r="Q7">
+        <v>17.72712312641852</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.144790144591133</v>
+        <v>9.821441173245454</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.113264639029055</v>
+        <v>8.032052139890814</v>
       </c>
       <c r="E8">
-        <v>13.07409044669289</v>
+        <v>13.20625994528611</v>
       </c>
       <c r="F8">
-        <v>18.86749448023832</v>
+        <v>27.78461698917626</v>
       </c>
       <c r="G8">
-        <v>2.07001456159454</v>
+        <v>34.65995109985751</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.343702730734562</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.425855209441254</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.22573123806351</v>
       </c>
       <c r="K8">
-        <v>14.80991184135992</v>
+        <v>17.39898570124825</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>8.144073807185148</v>
       </c>
       <c r="M8">
-        <v>15.91035790864464</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>12.18051186677408</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>14.80270728096787</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>17.84361598522135</v>
+      </c>
+      <c r="Q8">
+        <v>18.92385651127019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.002204079790175</v>
+        <v>11.22430155173016</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.40754324875172</v>
+        <v>8.578286412832853</v>
       </c>
       <c r="E9">
-        <v>14.85542891316689</v>
+        <v>14.37475454777095</v>
       </c>
       <c r="F9">
-        <v>20.48411150942793</v>
+        <v>31.14385874077339</v>
       </c>
       <c r="G9">
-        <v>2.057613235716543</v>
+        <v>39.67736712339201</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.974228018866768</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.291096979831448</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.09152949922467</v>
       </c>
       <c r="K9">
-        <v>16.76306418272775</v>
+        <v>18.42736281912084</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.697394173303557</v>
       </c>
       <c r="M9">
-        <v>18.31715029347802</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>11.67406891133746</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>15.53669556286584</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>19.32919111101103</v>
+      </c>
+      <c r="Q9">
+        <v>21.12872179770164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.644101304047439</v>
+        <v>12.11325039933709</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.609810276764652</v>
+        <v>8.884428821538144</v>
       </c>
       <c r="E10">
-        <v>16.19707761711566</v>
+        <v>14.96970418342724</v>
       </c>
       <c r="F10">
-        <v>21.69375144336296</v>
+        <v>33.24101044481465</v>
       </c>
       <c r="G10">
-        <v>2.048910746655376</v>
+        <v>42.83526324425833</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4.390914151458223</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.205139096464529</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.65729833565014</v>
       </c>
       <c r="K10">
-        <v>18.06961806092758</v>
+        <v>19.21661773433175</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.974023490037901</v>
       </c>
       <c r="M10">
-        <v>19.92649989689387</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>11.31369370976915</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>16.13525082644527</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>20.38503186288386</v>
+      </c>
+      <c r="Q10">
+        <v>22.54016366725869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.954249880649076</v>
+        <v>12.44442528350937</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.698576315300815</v>
+        <v>8.360215101824558</v>
       </c>
       <c r="E11">
-        <v>16.83854361753119</v>
+        <v>13.49010492168434</v>
       </c>
       <c r="F11">
-        <v>22.24708633833979</v>
+        <v>32.37770784403029</v>
       </c>
       <c r="G11">
-        <v>2.045029929287093</v>
+        <v>42.24826716199696</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4.847394041526706</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.182562769594236</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.47858615131889</v>
       </c>
       <c r="K11">
-        <v>18.63608927353352</v>
+        <v>19.64575859545618</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.219707577006655</v>
       </c>
       <c r="M11">
-        <v>20.62503257453031</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>11.15190659025173</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>16.42037783609043</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>20.89080947389857</v>
+      </c>
+      <c r="Q11">
+        <v>22.19997221975795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.069245980359144</v>
+        <v>12.59132373127669</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.731707126336571</v>
+        <v>7.868699154705832</v>
       </c>
       <c r="E12">
-        <v>17.07799290445498</v>
+        <v>12.2065669950122</v>
       </c>
       <c r="F12">
-        <v>22.45694657361437</v>
+        <v>31.19120780199893</v>
       </c>
       <c r="G12">
-        <v>2.043570641203712</v>
+        <v>41.08306017396551</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.659153844630641</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.166611828530196</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.20182107985996</v>
       </c>
       <c r="K12">
-        <v>18.84659988411588</v>
+        <v>19.77095357159438</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.603112776957185</v>
       </c>
       <c r="M12">
-        <v>20.88480714764342</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>11.09091739541397</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>16.53018741638263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>21.05996035377488</v>
+      </c>
+      <c r="Q12">
+        <v>21.60661327533284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.044588061365793</v>
+        <v>12.56482301546107</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.724593528447462</v>
+        <v>7.370543288927661</v>
       </c>
       <c r="E13">
-        <v>17.02657531844915</v>
+        <v>11.01068691841088</v>
       </c>
       <c r="F13">
-        <v>22.41173657646149</v>
+        <v>29.64972845199281</v>
       </c>
       <c r="G13">
-        <v>2.043884482605616</v>
+        <v>39.36227343677425</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.647495845637946</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.168420907564785</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.82648550831422</v>
       </c>
       <c r="K13">
-        <v>18.80144026713526</v>
+        <v>19.73657323380103</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.068931256559091</v>
       </c>
       <c r="M13">
-        <v>20.82906964784668</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>11.10404077976109</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>16.50645631827618</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>21.01956538536929</v>
+      </c>
+      <c r="Q13">
+        <v>20.76483667295725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.963759633042697</v>
+        <v>12.45871425227809</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.701311771491306</v>
+        <v>7.023711770050088</v>
       </c>
       <c r="E14">
-        <v>16.85831196089527</v>
+        <v>10.25339330606038</v>
       </c>
       <c r="F14">
-        <v>22.26434574308436</v>
+        <v>28.39037161458739</v>
       </c>
       <c r="G14">
-        <v>2.044909672005127</v>
+        <v>37.88080845467331</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.415416475090083</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.180552969947266</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.5157446802256</v>
       </c>
       <c r="K14">
-        <v>18.65348817108008</v>
+        <v>19.65289514745</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.758398265068943</v>
       </c>
       <c r="M14">
-        <v>20.64649896753417</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>11.14688363620039</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>16.42937513817926</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>20.90303475251686</v>
+      </c>
+      <c r="Q14">
+        <v>20.05260581474439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.913931576800275</v>
+        <v>12.38328093506285</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.686987683326974</v>
+        <v>6.935995531800717</v>
       </c>
       <c r="E15">
-        <v>16.75479848366275</v>
+        <v>10.07696576797686</v>
       </c>
       <c r="F15">
-        <v>22.17410381449893</v>
+        <v>28.00619260325468</v>
       </c>
       <c r="G15">
-        <v>2.045538942102823</v>
+        <v>37.39671198688964</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.590206176888556</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.191289070314249</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.41938521290024</v>
       </c>
       <c r="K15">
-        <v>18.56234284866714</v>
+        <v>19.61636156342754</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.690058343161295</v>
       </c>
       <c r="M15">
-        <v>20.53405387783792</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>11.17316106014509</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>16.38239985438448</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>20.83946207583685</v>
+      </c>
+      <c r="Q15">
+        <v>19.82529066198176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.623487983564409</v>
+        <v>12.00548046839706</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.603942455789559</v>
+        <v>6.894606802635186</v>
       </c>
       <c r="E16">
-        <v>16.15466624442493</v>
+        <v>10.02381765086967</v>
       </c>
       <c r="F16">
-        <v>21.6576408545484</v>
+        <v>27.34103447888018</v>
       </c>
       <c r="G16">
-        <v>2.049165859269406</v>
+        <v>36.29943369131286</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.299022044975064</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.232952879941738</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.23937806886987</v>
       </c>
       <c r="K16">
-        <v>18.03203731358789</v>
+        <v>19.31373552454705</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.666425511109352</v>
       </c>
       <c r="M16">
-        <v>19.88018049881398</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>11.32430735656774</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>16.11687475594457</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>20.42046714942446</v>
+      </c>
+      <c r="Q16">
+        <v>19.35133176791257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.440916747554402</v>
+        <v>11.76658581855817</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.552153292950374</v>
+        <v>7.046234320008738</v>
       </c>
       <c r="E17">
-        <v>15.78022816371308</v>
+        <v>10.36959420823571</v>
       </c>
       <c r="F17">
-        <v>21.34150174300418</v>
+        <v>27.5259546077353</v>
       </c>
       <c r="G17">
-        <v>2.05141019527553</v>
+        <v>36.27553409926028</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.617335463787098</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.259104488955878</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.27139974715879</v>
       </c>
       <c r="K17">
-        <v>17.6995733916674</v>
+        <v>19.12799693385071</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.80116483022533</v>
       </c>
       <c r="M17">
-        <v>19.47050839475193</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>11.41755839996794</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>15.95726634348279</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>20.16011624078777</v>
+      </c>
+      <c r="Q17">
+        <v>19.3798894876206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.336340805649108</v>
+        <v>11.65328601419816</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.522060811913868</v>
+        <v>7.39792503138421</v>
       </c>
       <c r="E18">
-        <v>15.56355737391691</v>
+        <v>11.20343430102701</v>
       </c>
       <c r="F18">
-        <v>21.15996070038865</v>
+        <v>28.46382777829792</v>
       </c>
       <c r="G18">
-        <v>2.05270847759499</v>
+        <v>37.18282499036565</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.608174201675974</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.265565125593975</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.48769353982466</v>
       </c>
       <c r="K18">
-        <v>17.50572274497274</v>
+        <v>18.98269070578935</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.156807369949469</v>
       </c>
       <c r="M18">
-        <v>19.23171067945826</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>11.47139834023392</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>15.86667299702165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>19.987990540812</v>
+      </c>
+      <c r="Q18">
+        <v>19.84426162839214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.306455712813419</v>
+        <v>11.59390822762419</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.511820204888537</v>
+        <v>7.904832933361375</v>
       </c>
       <c r="E19">
-        <v>15.49990219011897</v>
+        <v>12.48343712892847</v>
       </c>
       <c r="F19">
-        <v>21.09854843014434</v>
+        <v>29.9166353280091</v>
       </c>
       <c r="G19">
-        <v>2.053149351573747</v>
+        <v>38.74959903501036</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.651050938840042</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.274500571848043</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.83112047735874</v>
       </c>
       <c r="K19">
-        <v>17.43963706315962</v>
+        <v>18.9631363925406</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.748714479451818</v>
       </c>
       <c r="M19">
-        <v>19.15031189655893</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>11.48966369712212</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>15.83620760147129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>19.94584405607851</v>
+      </c>
+      <c r="Q19">
+        <v>20.61288087521963</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.460519569729188</v>
+        <v>11.79435977111341</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.557697999207901</v>
+        <v>8.801489108467891</v>
       </c>
       <c r="E20">
-        <v>15.82032907454055</v>
+        <v>14.80669508444162</v>
       </c>
       <c r="F20">
-        <v>21.37512580342731</v>
+        <v>32.69100764389681</v>
       </c>
       <c r="G20">
-        <v>2.051170522508993</v>
+        <v>42.01408463236213</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>4.281293777770721</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.255602238595137</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.50788564996657</v>
       </c>
       <c r="K20">
-        <v>17.73523650466348</v>
+        <v>19.1447641825375</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.897664886775267</v>
       </c>
       <c r="M20">
-        <v>19.51444570319513</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>11.40761074421977</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>15.97413185027496</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>20.18630080696025</v>
+      </c>
+      <c r="Q20">
+        <v>22.17065773166237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.987567188345897</v>
+        <v>12.46205295727275</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.708163413762521</v>
+        <v>9.151624026934758</v>
       </c>
       <c r="E21">
-        <v>16.90782800452346</v>
+        <v>15.57045760647436</v>
       </c>
       <c r="F21">
-        <v>22.30763000386341</v>
+        <v>34.56786203485079</v>
       </c>
       <c r="G21">
-        <v>2.044608277351123</v>
+        <v>44.69782126019367</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4.627437722216551</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.186301592984638</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.01155034103358</v>
       </c>
       <c r="K21">
-        <v>18.69705370362217</v>
+        <v>19.71918307887114</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.269572738558194</v>
       </c>
       <c r="M21">
-        <v>20.70025246438636</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>11.13429243180549</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>16.45196591956762</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>20.96009581783557</v>
+      </c>
+      <c r="Q21">
+        <v>23.39441351351358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.317753214050734</v>
+        <v>12.91058206277685</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.80368013441606</v>
+        <v>9.336759089582062</v>
       </c>
       <c r="E22">
-        <v>17.598461850655</v>
+        <v>15.95134966340473</v>
       </c>
       <c r="F22">
-        <v>22.91892989816867</v>
+        <v>35.65549582971172</v>
       </c>
       <c r="G22">
-        <v>2.040378990215221</v>
+        <v>46.27839669729172</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.838227130936774</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.130989587153459</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.31031034046635</v>
       </c>
       <c r="K22">
-        <v>19.3023555734231</v>
+        <v>20.0409614367138</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.453026007985791</v>
       </c>
       <c r="M22">
-        <v>21.44763561994523</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>10.95725540538245</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>16.77497033299064</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>21.4256041694121</v>
+      </c>
+      <c r="Q22">
+        <v>24.11726262710953</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.142823374237985</v>
+        <v>12.70666215948071</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.752964003442267</v>
+        <v>9.238286246180596</v>
       </c>
       <c r="E23">
-        <v>17.23166008452216</v>
+        <v>15.74903461187134</v>
       </c>
       <c r="F23">
-        <v>22.59252980546945</v>
+        <v>35.07796856562344</v>
       </c>
       <c r="G23">
-        <v>2.042631116714299</v>
+        <v>45.43984356341642</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4.72607718488196</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.149482364065692</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.15131419926572</v>
       </c>
       <c r="K23">
-        <v>18.98142045202586</v>
+        <v>19.81931143575139</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.355514247601095</v>
       </c>
       <c r="M23">
-        <v>21.05123977721574</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>11.05160917676982</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>16.60159880104277</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>21.15093689908219</v>
+      </c>
+      <c r="Q23">
+        <v>23.73326058499298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.451662339751206</v>
+        <v>11.83770894768118</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.555192227387331</v>
+        <v>8.858062757459981</v>
       </c>
       <c r="E24">
-        <v>15.8022070478383</v>
+        <v>14.96155035842109</v>
       </c>
       <c r="F24">
-        <v>21.35992369766671</v>
+        <v>32.82604969713501</v>
       </c>
       <c r="G24">
-        <v>2.051278853630366</v>
+        <v>42.15333058411744</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>4.293362489708014</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.239445799535519</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.53937535033447</v>
       </c>
       <c r="K24">
-        <v>17.71912166141876</v>
+        <v>19.05624324689394</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.97746800854506</v>
       </c>
       <c r="M24">
-        <v>19.4945918429984</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11.4121073646479</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>15.96650331698379</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>20.12991125324816</v>
+      </c>
+      <c r="Q24">
+        <v>22.23983491203644</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.776915179000937</v>
+        <v>10.80811354696445</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.330297369624375</v>
+        <v>8.433382263809417</v>
       </c>
       <c r="E25">
-        <v>14.38239390829382</v>
+        <v>14.06798381986436</v>
       </c>
       <c r="F25">
-        <v>20.04227065846137</v>
+        <v>30.263056654294</v>
       </c>
       <c r="G25">
-        <v>2.060892946641387</v>
+        <v>38.37226155096982</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.808235385190157</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.342031456233483</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.8605919152036</v>
       </c>
       <c r="K25">
-        <v>16.25718288168849</v>
+        <v>18.22730289418026</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.551552035841539</v>
       </c>
       <c r="M25">
-        <v>17.69423052864797</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>11.80889499807486</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>15.32771125788325</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>18.98009393091339</v>
+      </c>
+      <c r="Q25">
+        <v>20.54866397757186</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.07110706553414</v>
+        <v>11.3344354737897</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.109342739526385</v>
+        <v>8.027886750593243</v>
       </c>
       <c r="E2">
-        <v>13.37374519381084</v>
+        <v>13.28268201674084</v>
       </c>
       <c r="F2">
-        <v>28.26672993221657</v>
+        <v>28.34303511283693</v>
       </c>
       <c r="G2">
-        <v>35.38732958941296</v>
+        <v>35.13343365496765</v>
       </c>
       <c r="H2">
-        <v>3.433895891336283</v>
+        <v>3.354680841890847</v>
       </c>
       <c r="I2">
-        <v>3.396233145278608</v>
+        <v>3.117426566267347</v>
       </c>
       <c r="J2">
-        <v>10.34735823756303</v>
+        <v>11.05223783547155</v>
       </c>
       <c r="K2">
-        <v>17.48601896642178</v>
+        <v>15.45664475530829</v>
       </c>
       <c r="L2">
-        <v>8.223014651705206</v>
+        <v>11.73430255700145</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.22675008899538</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>8.186645455428673</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>18.02349849634124</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>19.23898366166556</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>16.95254442768329</v>
+      </c>
+      <c r="S2">
+        <v>19.32386268705346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.469452693691748</v>
+        <v>10.67437641196759</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.883390285651528</v>
+        <v>7.804744145659292</v>
       </c>
       <c r="E3">
-        <v>12.8817855190101</v>
+        <v>12.79444530773603</v>
       </c>
       <c r="F3">
-        <v>26.85028448042639</v>
+        <v>26.93478528880596</v>
       </c>
       <c r="G3">
-        <v>33.24182717978669</v>
+        <v>32.95197350688559</v>
       </c>
       <c r="H3">
-        <v>3.168886931167298</v>
+        <v>3.094831459489845</v>
       </c>
       <c r="I3">
-        <v>3.449856778822072</v>
+        <v>3.161742741971354</v>
       </c>
       <c r="J3">
-        <v>9.992843362994034</v>
+        <v>10.69950585996321</v>
       </c>
       <c r="K3">
-        <v>17.06054510568841</v>
+        <v>15.13648485297602</v>
       </c>
       <c r="L3">
-        <v>7.991494361741315</v>
+        <v>11.33480187017008</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.17347406423677</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.95708994745626</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>17.39752452283047</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>18.31458698640347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>16.38364140137062</v>
+      </c>
+      <c r="S3">
+        <v>18.40649161526809</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.074400525888803</v>
+        <v>10.24008889278065</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.741811596232563</v>
+        <v>7.665026476722563</v>
       </c>
       <c r="E4">
-        <v>12.56964211876899</v>
+        <v>12.48468046524076</v>
       </c>
       <c r="F4">
-        <v>25.95136037904216</v>
+        <v>26.04076302455847</v>
       </c>
       <c r="G4">
-        <v>31.86560538638516</v>
+        <v>31.55283796348938</v>
       </c>
       <c r="H4">
-        <v>3.000396048147611</v>
+        <v>2.929570749923007</v>
       </c>
       <c r="I4">
-        <v>3.484513120417371</v>
+        <v>3.190734244037757</v>
       </c>
       <c r="J4">
-        <v>9.772546403405437</v>
+        <v>10.47856174933256</v>
       </c>
       <c r="K4">
-        <v>16.80412706202267</v>
+        <v>14.94804894039257</v>
       </c>
       <c r="L4">
-        <v>7.845153557692583</v>
+        <v>11.11139743915358</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.14480731849368</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.811990308613454</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>17.00656483005288</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>17.73037110786534</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>16.03023769248816</v>
+      </c>
+      <c r="S4">
+        <v>17.8264330312077</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.895136084129989</v>
+        <v>10.04502259285802</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.683450572109271</v>
+        <v>7.607458911578532</v>
       </c>
       <c r="E5">
-        <v>12.43999792932024</v>
+        <v>12.35603073401153</v>
       </c>
       <c r="F5">
-        <v>25.5780835624214</v>
+        <v>25.66945116702425</v>
       </c>
       <c r="G5">
-        <v>31.29031105318716</v>
+        <v>30.96798229384171</v>
       </c>
       <c r="H5">
-        <v>2.930255772198446</v>
+        <v>2.86076370733364</v>
       </c>
       <c r="I5">
-        <v>3.501824924584613</v>
+        <v>3.206280624753818</v>
       </c>
       <c r="J5">
-        <v>9.682227953079343</v>
+        <v>10.38753330990557</v>
       </c>
       <c r="K5">
-        <v>16.71490464977862</v>
+        <v>14.88392074227678</v>
       </c>
       <c r="L5">
-        <v>7.784498426319816</v>
+        <v>11.03172862259728</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.14431456378585</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.751850401548163</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>16.8538687351908</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>17.48839383571109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>15.89214965439247</v>
+      </c>
+      <c r="S5">
+        <v>17.5861094890799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.850450537233764</v>
+        <v>9.998986371700164</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.673720998381187</v>
+        <v>7.597863235921047</v>
       </c>
       <c r="E6">
-        <v>12.41832595121965</v>
+        <v>12.33452546089364</v>
       </c>
       <c r="F6">
-        <v>25.51569376411027</v>
+        <v>25.60738566441612</v>
       </c>
       <c r="G6">
-        <v>31.1939212865417</v>
+        <v>30.86999098136176</v>
       </c>
       <c r="H6">
-        <v>2.918518945771825</v>
+        <v>2.849249320598548</v>
       </c>
       <c r="I6">
-        <v>3.508246698280173</v>
+        <v>3.213110100447941</v>
       </c>
       <c r="J6">
-        <v>9.667201212890259</v>
+        <v>10.37236146720709</v>
       </c>
       <c r="K6">
-        <v>16.71724178558907</v>
+        <v>14.88629518822676</v>
       </c>
       <c r="L6">
-        <v>7.774366101008368</v>
+        <v>11.02550316067304</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.15676901062653</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.74180421855534</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>16.83830809474137</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>17.44798688784676</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>15.87742067848478</v>
+      </c>
+      <c r="S6">
+        <v>17.54597464957171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.033205367801379</v>
+        <v>10.20229066682042</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.741027151216068</v>
+        <v>7.667377499842728</v>
       </c>
       <c r="E7">
-        <v>12.56790345499694</v>
+        <v>12.48391460176859</v>
       </c>
       <c r="F7">
-        <v>25.94635384316612</v>
+        <v>26.01437453672471</v>
       </c>
       <c r="G7">
-        <v>31.85790485908571</v>
+        <v>31.64770779094501</v>
       </c>
       <c r="H7">
-        <v>2.999456134613377</v>
+        <v>2.927826954950407</v>
       </c>
       <c r="I7">
-        <v>3.493999862907932</v>
+        <v>3.202022351382355</v>
       </c>
       <c r="J7">
-        <v>9.77133038854733</v>
+        <v>10.41290811594171</v>
       </c>
       <c r="K7">
-        <v>16.84935607878398</v>
+        <v>14.9825141019643</v>
       </c>
       <c r="L7">
-        <v>7.844339625908073</v>
+        <v>11.12936034717091</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.1783386466915</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.810374600902346</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>17.03128100020919</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>17.72712312641852</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>16.0507926924592</v>
+      </c>
+      <c r="S7">
+        <v>17.8047795862977</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.821441173245454</v>
+        <v>11.069922734692</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.032052139890814</v>
+        <v>7.961700205988201</v>
       </c>
       <c r="E8">
-        <v>13.20625994528611</v>
+        <v>13.11965719099255</v>
       </c>
       <c r="F8">
-        <v>27.78461698917626</v>
+        <v>27.79675514569138</v>
       </c>
       <c r="G8">
-        <v>34.65995109985751</v>
+        <v>34.70958518827334</v>
       </c>
       <c r="H8">
-        <v>3.343702730734562</v>
+        <v>3.263704999463155</v>
       </c>
       <c r="I8">
-        <v>3.425855209441254</v>
+        <v>3.146120994571922</v>
       </c>
       <c r="J8">
-        <v>10.22573123806351</v>
+        <v>10.72550877732603</v>
       </c>
       <c r="K8">
-        <v>17.39898570124825</v>
+        <v>15.39185707209654</v>
       </c>
       <c r="L8">
-        <v>8.144073807185148</v>
+        <v>11.62117259275</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.24977322143239</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>8.105847747996693</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>17.84361598522135</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>18.92385651127019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>16.78649298987283</v>
+      </c>
+      <c r="S8">
+        <v>18.95330997683073</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.22430155173016</v>
+        <v>12.59730400110738</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.578286412832853</v>
+        <v>8.503843148286213</v>
       </c>
       <c r="E9">
-        <v>14.37475454777095</v>
+        <v>14.28006832058905</v>
       </c>
       <c r="F9">
-        <v>31.14385874077339</v>
+        <v>31.12445538963785</v>
       </c>
       <c r="G9">
-        <v>39.67736712339201</v>
+        <v>39.85216641813974</v>
       </c>
       <c r="H9">
-        <v>3.974228018866768</v>
+        <v>3.88122397184098</v>
       </c>
       <c r="I9">
-        <v>3.291096979831448</v>
+        <v>3.032867416503684</v>
       </c>
       <c r="J9">
-        <v>11.09152949922467</v>
+        <v>11.53680706816829</v>
       </c>
       <c r="K9">
-        <v>18.42736281912084</v>
+        <v>16.18963793964947</v>
       </c>
       <c r="L9">
-        <v>8.697394173303557</v>
+        <v>12.69532773743877</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.36671964085693</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.654010747762648</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>19.32919111101103</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>21.12872179770164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>18.14834002047581</v>
+      </c>
+      <c r="S9">
+        <v>21.1305971146124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.11325039933709</v>
+        <v>13.56599911466774</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.884428821538144</v>
+        <v>8.823476490341307</v>
       </c>
       <c r="E10">
-        <v>14.96970418342724</v>
+        <v>14.87397603118188</v>
       </c>
       <c r="F10">
-        <v>33.24101044481465</v>
+        <v>33.09863279908127</v>
       </c>
       <c r="G10">
-        <v>42.83526324425833</v>
+        <v>43.55217513222443</v>
       </c>
       <c r="H10">
-        <v>4.390914151458223</v>
+        <v>4.285150588458897</v>
       </c>
       <c r="I10">
-        <v>3.205139096464529</v>
+        <v>2.964091402478095</v>
       </c>
       <c r="J10">
-        <v>11.65729833565014</v>
+        <v>11.7335156543753</v>
       </c>
       <c r="K10">
-        <v>19.21661773433175</v>
+        <v>16.82263761575125</v>
       </c>
       <c r="L10">
-        <v>8.974023490037901</v>
+        <v>13.55994872055723</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.48805719315271</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.923069651711508</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>20.38503186288386</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>22.54016366725869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>19.12294297302821</v>
+      </c>
+      <c r="S10">
+        <v>22.43479151483524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.44442528350937</v>
+        <v>13.93568620781757</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.360215101824558</v>
+        <v>8.326096156380089</v>
       </c>
       <c r="E11">
-        <v>13.49010492168434</v>
+        <v>13.39397220302795</v>
       </c>
       <c r="F11">
-        <v>32.37770784403029</v>
+        <v>32.01820846271708</v>
       </c>
       <c r="G11">
-        <v>42.24826716199696</v>
+        <v>43.97213997908856</v>
       </c>
       <c r="H11">
-        <v>4.847394041526706</v>
+        <v>4.743758998781633</v>
       </c>
       <c r="I11">
-        <v>3.182562769594236</v>
+        <v>2.952731960681858</v>
       </c>
       <c r="J11">
-        <v>11.47858615131889</v>
+        <v>10.86408043177734</v>
       </c>
       <c r="K11">
-        <v>19.64575859545618</v>
+        <v>17.17258607307262</v>
       </c>
       <c r="L11">
-        <v>8.219707577006655</v>
+        <v>14.0033555860139</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.5929695716807</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.158621485619509</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>20.89080947389857</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>22.19997221975795</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>19.58900611088395</v>
+      </c>
+      <c r="S11">
+        <v>21.90370686728004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.59132373127669</v>
+        <v>14.09415587138176</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.868699154705832</v>
+        <v>7.841267043162222</v>
       </c>
       <c r="E12">
-        <v>12.2065669950122</v>
+        <v>12.10332158442698</v>
       </c>
       <c r="F12">
-        <v>31.19120780199893</v>
+        <v>30.73493252225168</v>
       </c>
       <c r="G12">
-        <v>41.08306017396551</v>
+        <v>43.28035460224046</v>
       </c>
       <c r="H12">
-        <v>5.659153844630641</v>
+        <v>5.569660927151151</v>
       </c>
       <c r="I12">
-        <v>3.166611828530196</v>
+        <v>2.939351535424879</v>
       </c>
       <c r="J12">
-        <v>11.20182107985996</v>
+        <v>10.28735578639197</v>
       </c>
       <c r="K12">
-        <v>19.77095357159438</v>
+        <v>17.27508430120865</v>
       </c>
       <c r="L12">
-        <v>7.603112776957185</v>
+        <v>14.14999813473227</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.60884695844009</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.537808803501234</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>21.05996035377488</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>21.60661327533284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>19.74628602105406</v>
+      </c>
+      <c r="S12">
+        <v>21.22431322819103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.56482301546107</v>
+        <v>14.06465681950817</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.370543288927661</v>
+        <v>7.329764009735476</v>
       </c>
       <c r="E13">
-        <v>11.01068691841088</v>
+        <v>10.89429727201057</v>
       </c>
       <c r="F13">
-        <v>29.64972845199281</v>
+        <v>29.22501103919455</v>
       </c>
       <c r="G13">
-        <v>39.36227343677425</v>
+        <v>41.45007053135522</v>
       </c>
       <c r="H13">
-        <v>6.647495845637946</v>
+        <v>6.575136568961433</v>
       </c>
       <c r="I13">
-        <v>3.168420907564785</v>
+        <v>2.940241783924644</v>
       </c>
       <c r="J13">
-        <v>10.82648550831422</v>
+        <v>10.0186444805112</v>
       </c>
       <c r="K13">
-        <v>19.73657323380103</v>
+        <v>17.24686872524153</v>
       </c>
       <c r="L13">
-        <v>7.068931256559091</v>
+        <v>14.11393488073182</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.60054346479093</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.004978006004915</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>21.01956538536929</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>20.76483667295725</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>19.70898722401092</v>
+      </c>
+      <c r="S13">
+        <v>20.40837653294142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.45871425227809</v>
+        <v>13.95071112938703</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.023711770050088</v>
+        <v>6.966345845214223</v>
       </c>
       <c r="E14">
-        <v>10.25339330606038</v>
+        <v>10.12693367090905</v>
       </c>
       <c r="F14">
-        <v>28.39037161458739</v>
+        <v>28.04419226543763</v>
       </c>
       <c r="G14">
-        <v>37.88080845467331</v>
+        <v>39.63579952565994</v>
       </c>
       <c r="H14">
-        <v>7.415416475090083</v>
+        <v>7.354506555593539</v>
       </c>
       <c r="I14">
-        <v>3.180552969947266</v>
+        <v>2.95077685702492</v>
       </c>
       <c r="J14">
-        <v>10.5157446802256</v>
+        <v>9.95669341077215</v>
       </c>
       <c r="K14">
-        <v>19.65289514745</v>
+        <v>17.17840277068399</v>
       </c>
       <c r="L14">
-        <v>6.758398265068943</v>
+        <v>14.01351541608133</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.59218988734045</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.697768465969903</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>20.90303475251686</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>20.05260581474439</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>19.60048550297087</v>
+      </c>
+      <c r="S14">
+        <v>19.76346214967051</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.38328093506285</v>
+        <v>13.87147172683183</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.935995531800717</v>
+        <v>6.87200010062701</v>
       </c>
       <c r="E15">
-        <v>10.07696576797686</v>
+        <v>9.948303545721499</v>
       </c>
       <c r="F15">
-        <v>28.00619260325468</v>
+        <v>27.70335920732906</v>
       </c>
       <c r="G15">
-        <v>37.39671198688964</v>
+        <v>38.96160208753777</v>
       </c>
       <c r="H15">
-        <v>7.590206176888556</v>
+        <v>7.53245032322867</v>
       </c>
       <c r="I15">
-        <v>3.191289070314249</v>
+        <v>2.961279093383719</v>
       </c>
       <c r="J15">
-        <v>10.41938521290024</v>
+        <v>9.995089557131225</v>
       </c>
       <c r="K15">
-        <v>19.61636156342754</v>
+        <v>17.14864440743195</v>
       </c>
       <c r="L15">
-        <v>6.690058343161295</v>
+        <v>13.96086084108384</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.59681730403621</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.631114416932587</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>20.83946207583685</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>19.82529066198176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>19.54076454982586</v>
+      </c>
+      <c r="S15">
+        <v>19.57368543539891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.00548046839706</v>
+        <v>13.46458056296864</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.894606802635186</v>
+        <v>6.809333715282648</v>
       </c>
       <c r="E16">
-        <v>10.02381765086967</v>
+        <v>9.896860390152362</v>
       </c>
       <c r="F16">
-        <v>27.34103447888018</v>
+        <v>27.23902991822468</v>
       </c>
       <c r="G16">
-        <v>36.29943369131286</v>
+        <v>36.94814431625925</v>
       </c>
       <c r="H16">
-        <v>7.299022044975064</v>
+        <v>7.246854722671311</v>
       </c>
       <c r="I16">
-        <v>3.232952879941738</v>
+        <v>2.997020048549772</v>
       </c>
       <c r="J16">
-        <v>10.23937806886987</v>
+        <v>10.4328942417927</v>
       </c>
       <c r="K16">
-        <v>19.31373552454705</v>
+        <v>16.90229397279465</v>
       </c>
       <c r="L16">
-        <v>6.666425511109352</v>
+        <v>13.60460190385736</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.5636706705689</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.61473702607039</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>20.42046714942446</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>19.35133176791257</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>19.15146154352509</v>
+      </c>
+      <c r="S16">
+        <v>19.275124708788</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.76658581855817</v>
+        <v>13.2071820614427</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.046234320008738</v>
+        <v>6.954662415113</v>
       </c>
       <c r="E17">
-        <v>10.36959420823571</v>
+        <v>10.24724462468938</v>
       </c>
       <c r="F17">
-        <v>27.5259546077353</v>
+        <v>27.5095669100653</v>
       </c>
       <c r="G17">
-        <v>36.27553409926028</v>
+        <v>36.51840452505133</v>
       </c>
       <c r="H17">
-        <v>6.617335463787098</v>
+        <v>6.563587835059648</v>
       </c>
       <c r="I17">
-        <v>3.259104488955878</v>
+        <v>3.019599078598877</v>
       </c>
       <c r="J17">
-        <v>10.27139974715879</v>
+        <v>10.72771861513538</v>
       </c>
       <c r="K17">
-        <v>19.12799693385071</v>
+        <v>16.75200151722289</v>
       </c>
       <c r="L17">
-        <v>6.80116483022533</v>
+        <v>13.3873866938902</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.54447758545409</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.752949168227445</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>20.16011624078777</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>19.3798894876206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>18.90990782811447</v>
+      </c>
+      <c r="S17">
+        <v>19.37909461112401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.65328601419816</v>
+        <v>13.08022925795686</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.39792503138421</v>
+        <v>7.30635328126206</v>
       </c>
       <c r="E18">
-        <v>11.20343430102701</v>
+        <v>11.0874615888282</v>
       </c>
       <c r="F18">
-        <v>28.46382777829792</v>
+        <v>28.48032265746989</v>
       </c>
       <c r="G18">
-        <v>37.18282499036565</v>
+        <v>37.25192340041683</v>
       </c>
       <c r="H18">
-        <v>5.608174201675974</v>
+        <v>5.545505499390942</v>
       </c>
       <c r="I18">
-        <v>3.265565125593975</v>
+        <v>3.022020911339239</v>
       </c>
       <c r="J18">
-        <v>10.48769353982466</v>
+        <v>11.04712990106452</v>
       </c>
       <c r="K18">
-        <v>18.98269070578935</v>
+        <v>16.63457299273678</v>
       </c>
       <c r="L18">
-        <v>7.156807369949469</v>
+        <v>13.24088982142715</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.50837938624701</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.110605613226177</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>19.987990540812</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>19.84426162839214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>18.75179941896945</v>
+      </c>
+      <c r="S18">
+        <v>19.87338771302058</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.59390822762419</v>
+        <v>13.01831231629089</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.904832933361375</v>
+        <v>7.816408107754593</v>
       </c>
       <c r="E19">
-        <v>12.48343712892847</v>
+        <v>12.37454189109349</v>
       </c>
       <c r="F19">
-        <v>29.9166353280091</v>
+        <v>29.93708033400538</v>
       </c>
       <c r="G19">
-        <v>38.74959903501036</v>
+        <v>38.7734111129889</v>
       </c>
       <c r="H19">
-        <v>4.651050938840042</v>
+        <v>4.572543706385282</v>
       </c>
       <c r="I19">
-        <v>3.274500571848043</v>
+        <v>3.031118073889785</v>
       </c>
       <c r="J19">
-        <v>10.83112047735874</v>
+        <v>11.40790353696635</v>
       </c>
       <c r="K19">
-        <v>18.9631363925406</v>
+        <v>16.61901493756874</v>
       </c>
       <c r="L19">
-        <v>7.748714479451818</v>
+        <v>13.20851008762123</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.51584384875378</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.703781823322776</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>19.94584405607851</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>20.61288087521963</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>18.71213696243684</v>
+      </c>
+      <c r="S19">
+        <v>20.64696857463479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.79435977111341</v>
+        <v>13.23673646660931</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.801489108467891</v>
+        <v>8.726741745704945</v>
       </c>
       <c r="E20">
-        <v>14.80669508444162</v>
+        <v>14.70787998254997</v>
       </c>
       <c r="F20">
-        <v>32.69100764389681</v>
+        <v>32.64277457259497</v>
       </c>
       <c r="G20">
-        <v>42.01408463236213</v>
+        <v>42.30890994677183</v>
       </c>
       <c r="H20">
-        <v>4.281293777770721</v>
+        <v>4.181206656859883</v>
       </c>
       <c r="I20">
-        <v>3.255602238595137</v>
+        <v>3.016315391419516</v>
       </c>
       <c r="J20">
-        <v>11.50788564996657</v>
+        <v>11.88145400046168</v>
       </c>
       <c r="K20">
-        <v>19.1447641825375</v>
+        <v>16.76551284967361</v>
       </c>
       <c r="L20">
-        <v>8.897664886775267</v>
+        <v>13.40870233908768</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.54449239672259</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.851026078117634</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>20.18630080696025</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>22.17065773166237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>18.93430068504603</v>
+      </c>
+      <c r="S20">
+        <v>22.1471847251309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.46205295727275</v>
+        <v>13.95929711500365</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.151624026934758</v>
+        <v>9.142449175387272</v>
       </c>
       <c r="E21">
-        <v>15.57045760647436</v>
+        <v>15.49025540083524</v>
       </c>
       <c r="F21">
-        <v>34.56786203485079</v>
+        <v>34.10619161077258</v>
       </c>
       <c r="G21">
-        <v>44.69782126019367</v>
+        <v>46.842317509959</v>
       </c>
       <c r="H21">
-        <v>4.627437722216551</v>
+        <v>4.505416558610059</v>
       </c>
       <c r="I21">
-        <v>3.186301592984638</v>
+        <v>2.959115222706889</v>
       </c>
       <c r="J21">
-        <v>12.01155034103358</v>
+        <v>11.06805115064836</v>
       </c>
       <c r="K21">
-        <v>19.71918307887114</v>
+        <v>17.23287453370187</v>
       </c>
       <c r="L21">
-        <v>9.269572738558194</v>
+        <v>14.0679939274715</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.6219278180395</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>9.205410385117876</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>20.96009581783557</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>23.39441351351358</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>19.6520595502616</v>
+      </c>
+      <c r="S21">
+        <v>23.01142543636474</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.91058206277685</v>
+        <v>14.43787908152943</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.336759089582062</v>
+        <v>9.37462279316509</v>
       </c>
       <c r="E22">
-        <v>15.95134966340473</v>
+        <v>15.8850675081732</v>
       </c>
       <c r="F22">
-        <v>35.65549582971172</v>
+        <v>34.91066755717318</v>
       </c>
       <c r="G22">
-        <v>46.27839669729172</v>
+        <v>49.69815117333486</v>
       </c>
       <c r="H22">
-        <v>4.838227130936774</v>
+        <v>4.702281352658615</v>
       </c>
       <c r="I22">
-        <v>3.130989587153459</v>
+        <v>2.909184254043181</v>
       </c>
       <c r="J22">
-        <v>12.31031034046635</v>
+        <v>10.45886989665677</v>
       </c>
       <c r="K22">
-        <v>20.0409614367138</v>
+        <v>17.49701563299558</v>
       </c>
       <c r="L22">
-        <v>9.453026007985791</v>
+        <v>14.47013361297054</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.64165054041799</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>9.37713198400262</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>21.4256041694121</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>24.11726262710953</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>20.08677239871822</v>
+      </c>
+      <c r="S22">
+        <v>23.48752373345666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.70666215948071</v>
+        <v>14.21459247315845</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.238286246180596</v>
+        <v>9.24331351140423</v>
       </c>
       <c r="E23">
-        <v>15.74903461187134</v>
+        <v>15.67258680719871</v>
       </c>
       <c r="F23">
-        <v>35.07796856562344</v>
+        <v>34.52764307574079</v>
       </c>
       <c r="G23">
-        <v>45.43984356341642</v>
+        <v>47.98648064517366</v>
       </c>
       <c r="H23">
-        <v>4.72607718488196</v>
+        <v>4.598958229347796</v>
       </c>
       <c r="I23">
-        <v>3.149482364065692</v>
+        <v>2.922337274159552</v>
       </c>
       <c r="J23">
-        <v>12.15131419926572</v>
+        <v>10.92341145862075</v>
       </c>
       <c r="K23">
-        <v>19.81931143575139</v>
+        <v>17.31457960359092</v>
       </c>
       <c r="L23">
-        <v>9.355514247601095</v>
+        <v>14.22522920813323</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.59808694405452</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>9.287427439887729</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>21.15093689908219</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>23.73326058499298</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>19.83209583748969</v>
+      </c>
+      <c r="S23">
+        <v>23.27299908253348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.83770894768118</v>
+        <v>13.27348528831446</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.858062757459981</v>
+        <v>8.783203166882505</v>
       </c>
       <c r="E24">
-        <v>14.96155035842109</v>
+        <v>14.86319043270789</v>
       </c>
       <c r="F24">
-        <v>32.82604969713501</v>
+        <v>32.78085239121019</v>
       </c>
       <c r="G24">
-        <v>42.15333058411744</v>
+        <v>42.43180556379018</v>
       </c>
       <c r="H24">
-        <v>4.293362489708014</v>
+        <v>4.193208815401257</v>
       </c>
       <c r="I24">
-        <v>3.239445799535519</v>
+        <v>2.996067168826207</v>
       </c>
       <c r="J24">
-        <v>11.53937535033447</v>
+        <v>11.9231686706468</v>
       </c>
       <c r="K24">
-        <v>19.05624324689394</v>
+        <v>16.69337662711438</v>
       </c>
       <c r="L24">
-        <v>8.97746800854506</v>
+        <v>13.35207491009236</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.49102066611386</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.931075349671312</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>20.12991125324816</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>22.23983491203644</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>18.88496786611799</v>
+      </c>
+      <c r="S24">
+        <v>22.21915610755592</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.80811354696445</v>
+        <v>12.15583719678396</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.433382263809417</v>
+        <v>8.355736747454262</v>
       </c>
       <c r="E25">
-        <v>14.06798381986436</v>
+        <v>13.97408086733516</v>
       </c>
       <c r="F25">
-        <v>30.263056654294</v>
+        <v>30.27888592833158</v>
       </c>
       <c r="G25">
-        <v>38.37226155096982</v>
+        <v>38.39086070481646</v>
       </c>
       <c r="H25">
-        <v>3.808235385190157</v>
+        <v>3.719725781203449</v>
       </c>
       <c r="I25">
-        <v>3.342031456233483</v>
+        <v>3.081314497504801</v>
       </c>
       <c r="J25">
-        <v>10.8605919152036</v>
+        <v>11.40584764061103</v>
       </c>
       <c r="K25">
-        <v>18.22730289418026</v>
+        <v>16.03287778909618</v>
       </c>
       <c r="L25">
-        <v>8.551552035841539</v>
+        <v>12.43549973059517</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.38584048182835</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>8.510549869673053</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>18.98009393091339</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>20.54866397757186</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>17.82409407203376</v>
+      </c>
+      <c r="S25">
+        <v>20.58115068527081</v>
       </c>
     </row>
   </sheetData>
